--- a/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.35</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.319</v>
+        <v>19.886</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.199</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.805</v>
+        <v>21.771</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.971</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.519</v>
+        <v>17.172</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28.54392863692994</v>
+        <v>-1.460652109931274</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.54392863692994</v>
+        <v>23.76890957732236</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.54392863692994</v>
+        <v>31.79990124121981</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28.54392863692994</v>
+        <v>1.108701710104256</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.54392863692994</v>
+        <v>18.11500904112758</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.54392863692994</v>
+        <v>24.98716717817821</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28.54392863692994</v>
+        <v>11.66356989144209</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.54392863692994</v>
+        <v>26.72632597373639</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.54392863692994</v>
+        <v>33.54335043868049</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.54392863692994</v>
+        <v>30.07992759759328</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.54392863692994</v>
+        <v>37.86231329988165</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.54392863692994</v>
+        <v>43.23466215018665</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28.54392863692994</v>
+        <v>8.849476509839079</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.54392863692994</v>
+        <v>29.82812700788953</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.54392863692994</v>
+        <v>39.0045202601092</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.54392863692994</v>
+        <v>1.615905533156834</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.54392863692994</v>
+        <v>26.84949402540327</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.54392863692994</v>
+        <v>34.8836746508256</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>28.54392863692994</v>
+        <v>4.175324083662773</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.54392863692994</v>
+        <v>21.18545432786119</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.54392863692994</v>
+        <v>28.06049801848532</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28.54392863692994</v>
+        <v>14.73494963110114</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.54392863692994</v>
+        <v>29.80179415374302</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.54392863692994</v>
+        <v>36.62121897462511</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.54392863692994</v>
+        <v>33.15829678639297</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.54392863692994</v>
+        <v>40.94466303652543</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>28.54392863692994</v>
+        <v>46.31930507362746</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>28.54392863692994</v>
+        <v>11.92634679556762</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.54392863692994</v>
+        <v>32.91230671523182</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>28.54392863692994</v>
+        <v>42.09058371360835</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.54392863692994</v>
+        <v>10.311470798173</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.54392863692994</v>
+        <v>35.5480662811964</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.54392863692994</v>
+        <v>43.58333242719563</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>28.54392863692994</v>
+        <v>12.87396281535713</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28.54392863692994</v>
+        <v>29.88724376026654</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28.54392863692994</v>
+        <v>36.76330314903113</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.54392863692994</v>
+        <v>23.43620586155716</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28.54392863692994</v>
+        <v>38.50603057407183</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28.54392863692994</v>
+        <v>45.32645013521427</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.54392863692994</v>
+        <v>41.86620819592203</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>28.54392863692994</v>
+        <v>49.65405011284805</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>28.54392863692994</v>
+        <v>55.02902957371761</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.54392863692994</v>
+        <v>20.62997820033981</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.54392863692994</v>
+        <v>41.61942532588297</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>28.54392863692994</v>
+        <v>50.79913524352425</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28.54392863692994</v>
+        <v>4.310044519160343</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.54392863692994</v>
+        <v>29.54056511388775</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.54392863692994</v>
+        <v>37.57086175883695</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.54392863692994</v>
+        <v>6.881355289598346</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.54392863692994</v>
+        <v>23.88908049300075</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.54392863692994</v>
+        <v>30.76036940268558</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.54392863692994</v>
+        <v>17.43682246720699</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.54392863692994</v>
+        <v>32.50075275978453</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.54392863692994</v>
+        <v>39.31709188244157</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.54392863692994</v>
+        <v>35.85440088531153</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>28.54392863692994</v>
+        <v>43.6370279120131</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28.54392863692994</v>
+        <v>49.00866243651298</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>28.54392863692994</v>
+        <v>14.62204392880007</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.54392863692994</v>
+        <v>35.60229005152793</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>28.54392863692994</v>
+        <v>44.77766850135039</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>28.54392863692994</v>
+        <v>7.381252697710138</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.54392863692994</v>
+        <v>32.61579997097387</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.54392863692994</v>
+        <v>40.64928537320294</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>28.54392863692994</v>
+        <v>9.942628381614909</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.54392863692994</v>
+        <v>26.95417638889286</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.54392863692994</v>
+        <v>33.8283506215064</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.54392863692994</v>
+        <v>20.50285274913166</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>28.54392863692994</v>
+        <v>35.57087133321205</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28.54392863692994</v>
+        <v>42.38961064603451</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>28.54392863692994</v>
+        <v>38.92742065071754</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.54392863692994</v>
+        <v>46.71402799925126</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.54392863692994</v>
+        <v>52.08795556299573</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.54392863692994</v>
+        <v>17.69356509274759</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.54392863692994</v>
+        <v>38.68112043898283</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.54392863692994</v>
+        <v>47.85838247803635</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.54392863692994</v>
+        <v>16.07945089228896</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28.54392863692994</v>
+        <v>41.31700517761136</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.54392863692994</v>
+        <v>49.35157617976121</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.54392863692994</v>
+        <v>18.64389983260061</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>28.54392863692994</v>
+        <v>35.65859859340254</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>28.54392863692994</v>
+        <v>42.5337885985381</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.54392863692994</v>
+        <v>29.20674189285729</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.54392863692994</v>
+        <v>44.27774073424918</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>28.54392863692994</v>
+        <v>51.0974748705578</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.54392863692994</v>
+        <v>47.63796477479788</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.54392863692994</v>
+        <v>55.42604773760151</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28.54392863692994</v>
+        <v>60.8003128391738</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.54392863692994</v>
+        <v>26.3998290906534</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.54392863692994</v>
+        <v>47.3908718315737</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.54392863692994</v>
+        <v>56.56956677272593</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28.54392863692994</v>
+        <v>3.218701115475838</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.54392863692994</v>
+        <v>28.44903372772866</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.54392863692994</v>
+        <v>36.4791987113348</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.54392863692994</v>
+        <v>5.78966647184906</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.54392863692994</v>
+        <v>22.79713883152216</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.54392863692994</v>
+        <v>29.66828578014294</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>28.54392863692994</v>
+        <v>16.34511847450064</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.54392863692994</v>
+        <v>31.40883568464291</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.54392863692994</v>
+        <v>38.22504475381506</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.54392863692994</v>
+        <v>34.76256802982358</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.54392863692994</v>
+        <v>42.54514804128543</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>28.54392863692994</v>
+        <v>47.91665760140008</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.54392863692994</v>
+        <v>13.530442697195</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.54392863692994</v>
+        <v>34.51044159238576</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.54392863692994</v>
+        <v>43.68566123577945</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>28.54392863692994</v>
+        <v>6.293285088940721</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.54392863692994</v>
+        <v>31.52764449428584</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>28.54392863692994</v>
+        <v>39.56099820253532</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>28.54392863692994</v>
+        <v>8.854315531731132</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.54392863692994</v>
+        <v>25.8656108143298</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.54392863692994</v>
+        <v>32.73964305665085</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28.54392863692994</v>
+        <v>19.41452488878635</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.54392863692994</v>
+        <v>34.4823304918673</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.54392863692994</v>
+        <v>41.30093972314673</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>28.54392863692994</v>
+        <v>37.83896380088915</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>28.54392863692994</v>
+        <v>45.62552415708605</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>28.54392863692994</v>
+        <v>50.99932672801675</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.54392863692994</v>
+        <v>16.60533975069883</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.54392863692994</v>
+        <v>37.59264795057324</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>28.54392863692994</v>
+        <v>46.76975116645134</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>28.54392863692994</v>
+        <v>14.99123658674831</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>28.54392863692994</v>
+        <v>40.22860300148217</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>28.54392863692994</v>
+        <v>48.26304233072314</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.54392863692994</v>
+        <v>17.55534025394196</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>28.54392863692994</v>
+        <v>34.56978628609319</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>28.54392863692994</v>
+        <v>41.44483432373512</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>28.54392863692994</v>
+        <v>28.11816727631027</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28.54392863692994</v>
+        <v>43.18895313005898</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>28.54392863692994</v>
+        <v>50.00855720563688</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>28.54392863692994</v>
+        <v>46.54926119045139</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>28.54392863692994</v>
+        <v>54.33729713666538</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>28.54392863692994</v>
+        <v>59.7114372768374</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.54392863692994</v>
+        <v>25.31135699201879</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28.54392863692994</v>
+        <v>46.30215257977092</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>28.54392863692994</v>
+        <v>55.48068871202919</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>28.54392863692994</v>
+        <v>-4.043404348055205</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>28.54392863692994</v>
+        <v>21.18562169343024</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>28.54392863692994</v>
+        <v>29.21632593322626</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>28.54392863692994</v>
+        <v>-1.474350298849672</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>28.54392863692994</v>
+        <v>15.53146935426879</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28.54392863692994</v>
+        <v>22.40332930540843</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>28.54392863692994</v>
+        <v>9.080219306222503</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.54392863692994</v>
+        <v>24.14252655245595</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.54392863692994</v>
+        <v>30.95926684509847</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.54392863692994</v>
+        <v>27.49607714208527</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.54392863692994</v>
+        <v>35.27828187548916</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.54392863692994</v>
+        <v>40.65050909418086</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>28.54392863692994</v>
+        <v>6.266378688746855</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>28.54392863692994</v>
+        <v>27.24447616084446</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28.54392863692994</v>
+        <v>36.42050937809019</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>28.54392863692994</v>
+        <v>-0.9679917708914303</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.54392863692994</v>
+        <v>24.26506097739447</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.54392863692994</v>
+        <v>32.29895412425891</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>28.54392863692994</v>
+        <v>1.591127042827694</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>28.54392863692994</v>
+        <v>18.60076950561371</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.54392863692994</v>
+        <v>25.4755149567019</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.54392863692994</v>
+        <v>27.21684947829102</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.54392863692994</v>
+        <v>34.03599009667097</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.54392863692994</v>
+        <v>30.57330109391638</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.54392863692994</v>
+        <v>38.35948632699537</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.54392863692994</v>
+        <v>43.73400667034333</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>28.54392863692994</v>
+        <v>9.342103807427193</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>28.54392863692994</v>
+        <v>30.32751051984293</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>28.54392863692994</v>
+        <v>39.5054274436484</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>28.54392863692994</v>
+        <v>7.728431657006823</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.54392863692994</v>
+        <v>32.96449138637128</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>28.54392863692994</v>
+        <v>40.99947004617265</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>28.54392863692994</v>
+        <v>10.29062385256499</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.54392863692994</v>
+        <v>27.30341699921748</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.54392863692994</v>
+        <v>34.17917813728856</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>28.54392863692994</v>
+        <v>20.85256827108414</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>28.54392863692994</v>
+        <v>35.92194401747521</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.54392863692994</v>
+        <v>42.74207936639688</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>28.54392863692994</v>
+        <v>39.28207047864557</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>28.54392863692994</v>
+        <v>47.06973136679984</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>28.54392863692994</v>
+        <v>52.44458914114183</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>28.54392863692994</v>
+        <v>18.04659319536076</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>28.54392863692994</v>
+        <v>39.03548711816303</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>28.54392863692994</v>
+        <v>48.2148369354011</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>28.54392863692994</v>
+        <v>4.32817001037894</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.54392863692994</v>
+        <v>29.55827299832914</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.54392863692994</v>
+        <v>37.58902334617564</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.54392863692994</v>
+        <v>6.898125134289117</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>28.54392863692994</v>
+        <v>23.90506459881011</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.54392863692994</v>
+        <v>30.7769573614312</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.54392863692994</v>
+        <v>17.45345904346017</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>28.54392863692994</v>
+        <v>32.5167710964205</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.54392863692994</v>
+        <v>39.33357407350049</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.54392863692994</v>
+        <v>35.87000578247536</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.54392863692994</v>
+        <v>43.65264167713373</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.54392863692994</v>
+        <v>49.02483959173982</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>28.54392863692994</v>
+        <v>14.63905353702252</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>28.54392863692994</v>
+        <v>35.61821506816331</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>28.54392863692994</v>
+        <v>44.79431084978809</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.54392863692994</v>
+        <v>7.406514851187708</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.54392863692994</v>
+        <v>32.64064463694753</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.54392863692994</v>
+        <v>40.67458378028608</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.54392863692994</v>
+        <v>9.96653479315718</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28.54392863692994</v>
+        <v>26.97729716588834</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.54392863692994</v>
+        <v>33.85207529694891</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>28.54392863692994</v>
+        <v>35.59402661580704</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.54392863692994</v>
+        <v>42.41322979286396</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.54392863692994</v>
+        <v>38.95016226846259</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>28.54392863692994</v>
+        <v>46.73677866814241</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>28.54392863692994</v>
+        <v>52.11126966057169</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.54392863692994</v>
+        <v>17.71771121418136</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>28.54392863692994</v>
+        <v>38.70418210470736</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.54392863692994</v>
+        <v>47.88216146631886</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>28.54392863692994</v>
+        <v>16.10111170077552</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>28.54392863692994</v>
+        <v>41.33824839943044</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>28.54392863692994</v>
+        <v>49.37327310299987</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>28.54392863692994</v>
+        <v>18.664205009095</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.54392863692994</v>
+        <v>35.67811799996322</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>28.54392863692994</v>
+        <v>42.55391186605063</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>28.54392863692994</v>
+        <v>29.22691382490679</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>28.54392863692994</v>
+        <v>44.29729440536734</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>28.54392863692994</v>
+        <v>51.11749236325649</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>28.54392863692994</v>
+        <v>47.65710506372774</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>28.54392863692994</v>
+        <v>55.44519710482986</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.54392863692994</v>
+        <v>60.82002554306008</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>28.54392863692994</v>
+        <v>26.42037406765759</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>28.54392863692994</v>
+        <v>47.41033211806759</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.54392863692994</v>
+        <v>56.58974442067348</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>28.54392863692994</v>
+        <v>6.741349700089941</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>28.54392863692994</v>
+        <v>31.97053726614037</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.54392863692994</v>
+        <v>40.00007148520901</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>28.54392863692994</v>
+        <v>9.312855215063806</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.54392863692994</v>
+        <v>26.31985176810032</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>28.54392863692994</v>
+        <v>33.19050669956063</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>28.54392863692994</v>
+        <v>19.86787297182822</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.54392863692994</v>
+        <v>34.93112485363794</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>28.54392863692994</v>
+        <v>41.74686194647769</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>28.54392863692994</v>
+        <v>38.2841017718895</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>28.54392863692994</v>
+        <v>46.06646530297179</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>28.54392863692994</v>
+        <v>51.43769127528346</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.54392863692994</v>
+        <v>17.05315978784292</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>28.54392863692994</v>
+        <v>38.03204767543743</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>28.54392863692994</v>
+        <v>47.20666746815188</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>28.54392863692994</v>
+        <v>9.821412899045086</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.54392863692994</v>
+        <v>35.05462706144478</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>28.54392863692994</v>
+        <v>43.08734963581243</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28.54392863692994</v>
+        <v>12.38298427757822</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.54392863692994</v>
+        <v>29.39380356875155</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.54392863692994</v>
+        <v>36.2673434343592</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>28.54392863692994</v>
+        <v>22.94275926002355</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.54392863692994</v>
+        <v>38.01009933043203</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.54392863692994</v>
+        <v>44.82823625036339</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>28.54392863692994</v>
+        <v>41.36597680421632</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>28.54392863692994</v>
+        <v>49.15232045960956</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>28.54392863692994</v>
+        <v>54.52583920155963</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>28.54392863692994</v>
+        <v>20.13353621735804</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.54392863692994</v>
+        <v>41.11973300291528</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>28.54392863692994</v>
+        <v>50.29623605943222</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>28.54392863692994</v>
+        <v>18.51653190914762</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.54392863692994</v>
+        <v>21.08117615294863</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.54392863692994</v>
+        <v>38.09514578645418</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>28.54392863692994</v>
+        <v>44.96970134638538</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>28.54392863692994</v>
+        <v>31.64356853131393</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.54392863692994</v>
+        <v>46.71388846584979</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.54392863692994</v>
+        <v>53.533020143993</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>28.54392863692994</v>
+        <v>50.0734405850409</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>28.54392863692994</v>
+        <v>57.86125969511444</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.54392863692994</v>
+        <v>63.2351159075579</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>28.54392863692994</v>
+        <v>28.83672030906565</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>28.54392863692994</v>
+        <v>49.8264040577309</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>28.54392863692994</v>
+        <v>59.00433991774629</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.54392863692994</v>
+        <v>-4.297401004087064</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.54392863692994</v>
+        <v>20.92997415986908</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>28.54392863692994</v>
+        <v>28.95986271192898</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>28.54392863692994</v>
+        <v>-1.727691408353948</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>28.54392863692994</v>
+        <v>15.27731886931271</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.54392863692994</v>
+        <v>22.14833592998561</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.54392863692994</v>
+        <v>8.826210560888867</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>28.54392863692994</v>
+        <v>23.88771567724883</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>28.54392863692994</v>
+        <v>30.70372912206552</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>28.54392863692994</v>
+        <v>27.24164797312757</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.54392863692994</v>
+        <v>35.02333290345554</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>28.54392863692994</v>
+        <v>40.39470354994957</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.54392863692994</v>
+        <v>6.012570939530079</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.54392863692994</v>
+        <v>26.98962034697401</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.54392863692994</v>
+        <v>36.16463028745331</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>28.54392863692994</v>
+        <v>-1.219675462877248</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.54392863692994</v>
+        <v>24.01172631412443</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.54392863692994</v>
+        <v>32.04480360578215</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.54392863692994</v>
+        <v>1.340099982060238</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>28.54392863692994</v>
+        <v>18.34893301341801</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.54392863692994</v>
+        <v>25.22283544644735</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.54392863692994</v>
+        <v>11.89875904013878</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.54392863692994</v>
+        <v>26.96435239971994</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.54392863692994</v>
+        <v>33.78276604264296</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.54392863692994</v>
+        <v>30.32118523220119</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>28.54392863692994</v>
+        <v>38.10685033920244</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>28.54392863692994</v>
+        <v>43.48051397678729</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.54392863692994</v>
+        <v>9.090609309363018</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.54392863692994</v>
+        <v>30.07496771468858</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.54392863692994</v>
+        <v>39.25186131814191</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>28.54392863692994</v>
+        <v>7.477830149549064</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.54392863692994</v>
+        <v>32.7122387467099</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>28.54392863692994</v>
+        <v>40.74640146478511</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.54392863692994</v>
+        <v>10.04067866933214</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.54392863692994</v>
+        <v>27.05266223069272</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>28.54392863692994</v>
+        <v>33.9275802805321</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>28.54392863692994</v>
+        <v>20.60195521840105</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>28.54392863692994</v>
+        <v>35.67052860131027</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>28.54392863692994</v>
+        <v>42.48993691467821</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28.54392863692994</v>
+        <v>39.0310359780698</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>28.54392863692994</v>
+        <v>46.81817657620117</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>28.54392863692994</v>
+        <v>52.19217766910153</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>28.54392863692994</v>
+        <v>17.79618019576448</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>28.54392863692994</v>
+        <v>38.784025652138</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>28.54392863692994</v>
+        <v>47.96235201236563</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.54392863692994</v>
+        <v>-6.967302001195876</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>28.54392863692994</v>
+        <v>18.26230961001842</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.54392863692994</v>
+        <v>26.29307685234484</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>28.54392863692994</v>
+        <v>-4.397746319236248</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>28.54392863692994</v>
+        <v>12.60867983013385</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>28.54392863692994</v>
+        <v>19.48058077429677</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>28.54392863692994</v>
+        <v>6.156879960415964</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>28.54392863692994</v>
+        <v>21.21971325270694</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.54392863692994</v>
+        <v>28.03653268985148</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>28.54392863692994</v>
+        <v>24.57353375568358</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>28.54392863692994</v>
+        <v>32.35604847552737</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>28.54392863692994</v>
+        <v>37.72826851641311</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>28.54392863692994</v>
+        <v>3.343046480915305</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>28.54392863692994</v>
+        <v>24.32177754485021</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>28.54392863692994</v>
+        <v>33.49785239816335</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>28.54392863692994</v>
+        <v>-3.891780477375377</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>28.54392863692994</v>
+        <v>21.34185787766923</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.54392863692994</v>
+        <v>29.37581396891268</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>28.54392863692994</v>
+        <v>-1.332160052357025</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>28.54392863692994</v>
+        <v>15.67808894772624</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>28.54392863692994</v>
+        <v>22.55287531093815</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>28.54392863692994</v>
+        <v>9.227223556293225</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>28.54392863692994</v>
+        <v>24.29414520215541</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>28.54392863692994</v>
+        <v>31.11336490240139</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.54392863692994</v>
+        <v>27.65086679288846</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>28.54392863692994</v>
+        <v>35.43736201395156</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>28.54392863692994</v>
+        <v>40.81187516374236</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.54392863692994</v>
+        <v>6.418880750637882</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.54392863692994</v>
+        <v>27.40492110436516</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.54392863692994</v>
+        <v>36.58287960671591</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>28.54392863692994</v>
+        <v>4.804005760650185</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>28.54392863692994</v>
+        <v>30.04065107228838</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.54392863692994</v>
+        <v>38.07569275502671</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>28.54392863692994</v>
+        <v>7.366699589397072</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>28.54392863692994</v>
+        <v>24.38009925669589</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>28.54392863692994</v>
+        <v>31.25590138669658</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.54392863692994</v>
+        <v>17.92870072409666</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.54392863692994</v>
+        <v>32.99860253634132</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.54392863692994</v>
+        <v>39.81881704242541</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>28.54392863692994</v>
+        <v>36.35899905606597</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>28.54392863692994</v>
+        <v>44.14696994063526</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>28.54392863692994</v>
+        <v>49.52182056269716</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>28.54392863692994</v>
+        <v>15.12273300180233</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28.54392863692994</v>
+        <v>36.11226057828777</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>28.54392863692994</v>
+        <v>45.29165203594631</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>28.54392863692994</v>
+        <v>9.180923963800083</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>28.54392863692994</v>
+        <v>34.41130208656217</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>28.54392863692994</v>
+        <v>42.44136809021326</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.54392863692994</v>
+        <v>11.7532020405513</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>28.54392863692994</v>
+        <v>28.76108159193724</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.54392863692994</v>
+        <v>35.63224332234007</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.54392863692994</v>
+        <v>22.30875185609922</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>28.54392863692994</v>
+        <v>37.37280241018222</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.54392863692994</v>
+        <v>44.18901596193656</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.54392863692994</v>
+        <v>40.72612389123016</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>28.54392863692994</v>
+        <v>48.50881703527195</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.54392863692994</v>
+        <v>53.88027577001232</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.54392863692994</v>
+        <v>19.4942233818398</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>28.54392863692994</v>
+        <v>40.47432969854096</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.54392863692994</v>
+        <v>49.64972137934764</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.54392863692994</v>
+        <v>12.25337754579699</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>28.54392863692994</v>
+        <v>37.48778229434085</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.54392863692994</v>
+        <v>45.52103677165566</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.54392863692994</v>
+        <v>14.81572066842081</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>28.54392863692994</v>
+        <v>31.82742297888821</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>28.54392863692994</v>
+        <v>38.70146976467437</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.54392863692994</v>
+        <v>25.37602757355968</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>28.54392863692994</v>
+        <v>40.44416639281418</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>28.54392863692994</v>
+        <v>47.26277985613594</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.54392863692994</v>
+        <v>43.80038874412595</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>28.54392863692994</v>
+        <v>51.58706211529103</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.54392863692994</v>
+        <v>56.96081373394169</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.54392863692994</v>
+        <v>22.56698973124413</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>28.54392863692994</v>
+        <v>43.55440513232419</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.54392863692994</v>
+        <v>52.73168008540144</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.54392863692994</v>
+        <v>20.94984224765473</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.54392863692994</v>
+        <v>46.18725381331889</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.54392863692994</v>
+        <v>54.22159386491002</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>28.54392863692994</v>
+        <v>23.51525862741904</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>28.54392863692994</v>
+        <v>40.53011147268536</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>28.54392863692994</v>
+        <v>47.40517402981642</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>28.54392863692994</v>
+        <v>34.07818303968317</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>28.54392863692994</v>
+        <v>49.14930190324493</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>28.54392863692994</v>
+        <v>55.96891019154397</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>28.54392863692994</v>
+        <v>52.50919905495847</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>28.54392863692994</v>
+        <v>60.29734794803666</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>28.54392863692994</v>
+        <v>65.67143706694937</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>28.54392863692994</v>
+        <v>31.27152006529788</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>28.54392863692994</v>
+        <v>52.26242262646544</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.54392863692994</v>
+        <v>61.44113047096916</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>28.54392863692994</v>
+        <v>-10.13615627335183</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>28.54392863692994</v>
+        <v>15.09042758499699</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>28.54392863692994</v>
+        <v>23.1204953497553</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.54392863692994</v>
+        <v>-7.56739379342558</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.54392863692994</v>
+        <v>9.436853754534482</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>28.54392863692994</v>
+        <v>16.30807028789208</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.54392863692994</v>
+        <v>2.986160847848069</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>28.54392863692994</v>
+        <v>18.0470185051695</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>28.54392863692994</v>
+        <v>24.86319986090804</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.54392863692994</v>
+        <v>21.40100787194969</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.54392863692994</v>
+        <v>29.18230468687752</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>28.54392863692994</v>
+        <v>34.55383548758631</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.54392863692994</v>
+        <v>0.1721109305291435</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>28.54392863692994</v>
+        <v>21.14856018100456</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>28.54392863692994</v>
+        <v>30.32357890147843</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.54392863692994</v>
+        <v>-7.062727881304895</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>28.54392863692994</v>
+        <v>18.16788235121682</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.54392863692994</v>
+        <v>26.2011389995247</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>28.54392863692994</v>
+        <v>-4.503899485664405</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.54392863692994</v>
+        <v>12.50417058458096</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>28.54392863692994</v>
+        <v>19.3782726220111</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.54392863692994</v>
+        <v>6.054411999710524</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.54392863692994</v>
+        <v>21.119357659632</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>28.54392863692994</v>
+        <v>27.93793938195144</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>28.54392863692994</v>
+        <v>24.47624790730221</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.54392863692994</v>
+        <v>32.2615248040636</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.54392863692994</v>
+        <v>37.63534864298835</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.54392863692994</v>
+        <v>3.245852248904626</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.54392863692994</v>
+        <v>24.2296101861016</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.54392863692994</v>
+        <v>33.40651280607541</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>28.54392863692994</v>
+        <v>1.635381152909318</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>28.54392863692994</v>
+        <v>26.8689982604317</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.54392863692994</v>
+        <v>34.90334033716796</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.54392863692994</v>
+        <v>4.19728253529162</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>28.54392863692994</v>
+        <v>21.20850321541515</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.54392863692994</v>
+        <v>28.08362084392787</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>28.54392863692994</v>
+        <v>14.75821152302127</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.54392863692994</v>
+        <v>29.82613729296658</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.54392863692994</v>
+        <v>36.64571366235465</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.54392863692994</v>
+        <v>33.18670190369996</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>28.54392863692994</v>
+        <v>40.97345434105593</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.54392863692994</v>
+        <v>46.34761568062937</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>28.54392863692994</v>
+        <v>11.95202647608257</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>28.54392863692994</v>
+        <v>32.93927156103872</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.54392863692994</v>
+        <v>42.11760691554754</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.54392863692994</v>
+        <v>0.9292367530420194</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>28.54392863692994</v>
+        <v>26.15841600339969</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>28.54392863692994</v>
+        <v>34.18817920098208</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.54392863692994</v>
+        <v>3.499577571420005</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>28.54392863692994</v>
+        <v>20.50617529160469</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.54392863692994</v>
+        <v>27.37694342813644</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.54392863692994</v>
+        <v>14.05449729816725</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.54392863692994</v>
+        <v>29.11743550028554</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>28.54392863692994</v>
+        <v>35.93327579414178</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>28.54392863692994</v>
+        <v>32.47099381064881</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>28.54392863692994</v>
+        <v>40.25322179241722</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.54392863692994</v>
+        <v>45.62451977199068</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.54392863692994</v>
+        <v>11.23981821015379</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.54392863692994</v>
+        <v>32.21871724728057</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.54392863692994</v>
+        <v>41.39334917903786</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>28.54392863692994</v>
+        <v>4.007638602020407</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>28.54392863692994</v>
+        <v>29.24084455637332</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>28.54392863692994</v>
+        <v>37.27379638232084</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>28.54392863692994</v>
+        <v>6.568045128729196</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>28.54392863692994</v>
+        <v>23.57846568809568</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.54392863692994</v>
+        <v>30.45211902211601</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.54392863692994</v>
+        <v>17.12772220830369</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.54392863692994</v>
+        <v>32.19474868210763</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>28.54392863692994</v>
+        <v>39.01298907687307</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>28.54392863692994</v>
+        <v>35.55120778550362</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>28.54392863692994</v>
+        <v>43.33741599397787</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>28.54392863692994</v>
+        <v>48.71100688963624</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.54392863692994</v>
+        <v>14.31853342862486</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>28.54392863692994</v>
+        <v>35.30474153323804</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>28.54392863692994</v>
+        <v>44.48125702241761</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>28.54392863692994</v>
+        <v>12.70507629082739</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>28.54392863692994</v>
+        <v>37.94128912800785</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>28.54392863692994</v>
+        <v>45.97532652954534</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.54392863692994</v>
+        <v>15.26855579125699</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>28.54392863692994</v>
+        <v>32.28212696837694</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>28.54392863692994</v>
+        <v>39.15679604332219</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>28.54392863692994</v>
+        <v>25.83085045270822</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>28.54392863692994</v>
+        <v>40.90085705407525</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>28.54392863692994</v>
+        <v>47.72009224290436</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.54392863692994</v>
+        <v>44.26099073342654</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>28.54392863692994</v>
+        <v>52.04867447607809</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>28.54392863692994</v>
+        <v>57.42260292924244</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>28.54392863692994</v>
+        <v>23.02403643467234</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>28.54392863692994</v>
+        <v>44.01373178981341</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>28.54392863692994</v>
+        <v>53.19168012846252</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.54392863692994</v>
+        <v>-8.877058519842407</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>28.54392863692994</v>
+        <v>16.35093110162099</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.54392863692994</v>
+        <v>24.38075015769211</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>28.54392863692994</v>
+        <v>-6.307706057844811</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>28.54392863692994</v>
+        <v>10.69764149669835</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>28.54392863692994</v>
+        <v>17.56846049871582</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>28.54392863692994</v>
+        <v>4.246423870346135</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>28.54392863692994</v>
+        <v>19.30821580506394</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>28.54392863692994</v>
+        <v>26.12408106579007</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>28.54392863692994</v>
+        <v>22.66217856147092</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.54392863692994</v>
+        <v>30.44384462622362</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.54392863692994</v>
+        <v>35.81518877311647</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.54392863692994</v>
+        <v>1.43222303149561</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.54392863692994</v>
+        <v>22.40983332668988</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>28.54392863692994</v>
+        <v>31.58458338856396</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.54392863692994</v>
+        <v>-5.8056294313851</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>28.54392863692994</v>
+        <v>19.42638671531007</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.54392863692994</v>
+        <v>27.45939454889312</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>28.54392863692994</v>
+        <v>-3.246211572713705</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>28.54392863692994</v>
+        <v>13.76295863351312</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>28.54392863692994</v>
+        <v>20.63666300970364</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>28.54392863692994</v>
+        <v>7.312675312719776</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>28.54392863692994</v>
+        <v>22.3785553768878</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.54392863692994</v>
+        <v>29.19682089072263</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.54392863692994</v>
+        <v>25.73541919295134</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.54392863692994</v>
+        <v>33.5210654395844</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.54392863692994</v>
+        <v>38.8947026006929</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>28.54392863692994</v>
+        <v>4.503965010457151</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.54392863692994</v>
+        <v>25.48888422133747</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>28.54392863692994</v>
+        <v>34.66551798764807</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>28.54392863692994</v>
+        <v>2.895171447908766</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.54392863692994</v>
+        <v>28.13019463286174</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.54392863692994</v>
+        <v>36.16428796633285</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>28.54392863692994</v>
+        <v>5.457662435125158</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>28.54392863692994</v>
+        <v>22.46998341170196</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.54392863692994</v>
+        <v>29.34470345557737</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.54392863692994</v>
+        <v>16.01916710516515</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>28.54392863692994</v>
+        <v>31.08802743108937</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.54392863692994</v>
+        <v>37.90728767136126</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>28.54392863692994</v>
+        <v>34.44856564090061</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>28.54392863692994</v>
+        <v>42.23568744089722</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>28.54392863692994</v>
+        <v>47.60966213289511</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>28.54392863692994</v>
+        <v>13.21283133982537</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>28.54392863692994</v>
+        <v>34.20123793408347</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>28.54392863692994</v>
+        <v>43.37930449386933</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>28.54392863692994</v>
+        <v>-14.47597090514681</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>28.54392863692994</v>
+        <v>10.75068538315135</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>28.54392863692994</v>
+        <v>18.78002061707174</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>28.54392863692994</v>
+        <v>-11.90731578801318</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.54392863692994</v>
+        <v>5.096959429442123</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>28.54392863692994</v>
+        <v>11.96732513210522</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.54392863692994</v>
+        <v>-1.354011604752245</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>28.54392863692994</v>
+        <v>13.70681592140296</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.54392863692994</v>
+        <v>20.52222757579274</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>28.54392863692994</v>
+        <v>17.06070098530553</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.54392863692994</v>
+        <v>24.84199056298282</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.54392863692994</v>
+        <v>30.21313049729487</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>28.54392863692994</v>
+        <v>-4.167836163285855</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>28.54392863692994</v>
+        <v>16.80852640998866</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.54392863692994</v>
+        <v>25.98267415531588</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.54392863692994</v>
+        <v>-11.40346935816545</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>28.54392863692994</v>
+        <v>13.82721330678977</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>28.54392863692994</v>
+        <v>21.85973723522194</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.54392863692994</v>
+        <v>-8.844748388871366</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.54392863692994</v>
+        <v>8.163349336810953</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.54392863692994</v>
+        <v>15.03660033786754</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.54392863692994</v>
+        <v>1.71331264937011</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>28.54392863692994</v>
+        <v>16.77822813145384</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>28.54392863692994</v>
+        <v>23.59603999590571</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>28.54392863692994</v>
+        <v>20.13501413187863</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>28.54392863692994</v>
+        <v>27.92028377550879</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>28.54392863692994</v>
+        <v>33.29371663822714</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>28.54392863692994</v>
+        <v>-1.095021656286448</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>28.54392863692994</v>
+        <v>19.88864953402334</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.54392863692994</v>
+        <v>29.06468097161566</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>28.54392863692994</v>
+        <v>-2.702681085168464</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.54392863692994</v>
+        <v>22.53100850048953</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.54392863692994</v>
+        <v>30.56461790108905</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.54392863692994</v>
+        <v>-0.1408871767314253</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.54392863692994</v>
+        <v>16.87036119743017</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.54392863692994</v>
+        <v>23.74462783525804</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>28.54392863692994</v>
+        <v>10.41979158479855</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.54392863692994</v>
+        <v>25.48768721437172</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.54392863692994</v>
+        <v>32.30649377204351</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.54392863692994</v>
+        <v>28.84814740840422</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.54392863692994</v>
+        <v>36.63489256797051</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.54392863692994</v>
+        <v>42.00866294875938</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.54392863692994</v>
+        <v>7.613831698088362</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.54392863692994</v>
+        <v>28.60099014163997</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.54392863692994</v>
+        <v>37.77845431262053</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>28.54392863692994</v>
+        <v>-2.19280983753093</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>28.54392863692994</v>
+        <v>23.03665104954111</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.54392863692994</v>
+        <v>31.06753832968856</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>28.54392863692994</v>
+        <v>0.3762488118234302</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>28.54392863692994</v>
+        <v>17.38245875067959</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.54392863692994</v>
+        <v>24.25447967257323</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.54392863692994</v>
+        <v>10.93124062336518</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.54392863692994</v>
+        <v>25.99390171401571</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.54392863692994</v>
+        <v>32.81082212826153</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.54392863692994</v>
+        <v>29.34753788455068</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.54392863692994</v>
+        <v>37.12985603107815</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.54392863692994</v>
+        <v>42.50208658110513</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.54392863692994</v>
+        <v>8.11721392064284</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.54392863692994</v>
+        <v>29.09577165597513</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>28.54392863692994</v>
+        <v>38.27202286614262</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>28.54392863692994</v>
+        <v>0.8807673774638403</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.54392863692994</v>
+        <v>26.11425497787799</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.54392863692994</v>
+        <v>34.14833118050787</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.54392863692994</v>
+        <v>3.43989060639673</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.54392863692994</v>
+        <v>20.44992336414488</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.54392863692994</v>
+        <v>27.32482980056444</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.54392863692994</v>
+        <v>13.99963964316704</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.54392863692994</v>
+        <v>29.0663890803129</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.54392863692994</v>
+        <v>35.88570982191597</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.54392863692994</v>
+        <v>32.42292637501318</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>28.54392863692994</v>
+        <v>40.20922500536314</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.54392863692994</v>
+        <v>45.58374870994272</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.54392863692994</v>
+        <v>11.19110363279459</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.54392863692994</v>
+        <v>32.17697066679956</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>28.54392863692994</v>
+        <v>41.35510560733714</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.54392863692994</v>
+        <v>9.577565785122502</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.54392863692994</v>
+        <v>34.81406043443407</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.54392863692994</v>
+        <v>42.8492221694171</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.54392863692994</v>
+        <v>12.13976250813245</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.54392863692994</v>
+        <v>29.15294602816188</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.54392863692994</v>
+        <v>36.02886816894069</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.54392863692994</v>
+        <v>22.70212912758713</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.54392863692994</v>
+        <v>37.77185881248705</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.54392863692994</v>
+        <v>44.59217430563321</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.54392863692994</v>
+        <v>41.13207101525872</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>28.54392863692994</v>
+        <v>48.91984531493746</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.54392863692994</v>
+        <v>54.29470646872154</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.54392863692994</v>
+        <v>19.89596817221401</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>28.54392863692994</v>
+        <v>40.88532248988874</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.54392863692994</v>
+        <v>50.06489034608013</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.54392863692994</v>
+        <v>1.777025337742216</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>28.54392863692994</v>
+        <v>27.00584870432432</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.54392863692994</v>
+        <v>35.03592306215684</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.54392863692994</v>
+        <v>4.347316009098918</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.54392863692994</v>
+        <v>21.35359532618635</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.54392863692994</v>
+        <v>28.22468625305864</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.54392863692994</v>
+        <v>14.90205208193801</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.54392863692994</v>
+        <v>29.96472967044328</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.54392863692994</v>
+        <v>36.78085284078965</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.54392863692994</v>
+        <v>33.31840988766056</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>28.54392863692994</v>
+        <v>41.10045843406716</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.54392863692994</v>
+        <v>46.47195489332013</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.54392863692994</v>
+        <v>12.08741507260903</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.54392863692994</v>
+        <v>33.06614317504706</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.54392863692994</v>
+        <v>42.24114277481193</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>28.54392863692994</v>
+        <v>4.847524463911455</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.54392863692994</v>
+        <v>30.08037430727133</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.54392863692994</v>
+        <v>38.11363744535369</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>28.54392863692994</v>
+        <v>7.40788049127606</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.54392863692994</v>
+        <v>24.4179824194929</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.54392863692994</v>
+        <v>31.29195871037361</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>28.54392863692994</v>
+        <v>17.96737352510264</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>28.54392863692994</v>
+        <v>33.03413919355377</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.54392863692994</v>
+        <v>39.85266261591359</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.54392863692994</v>
+        <v>36.39072054448231</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>28.54392863692994</v>
+        <v>44.17674924005418</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>28.54392863692994</v>
+        <v>49.55053873025419</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>28.54392863692994</v>
+        <v>15.15822710978559</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>28.54392863692994</v>
+        <v>36.14426410265015</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.54392863692994</v>
+        <v>45.32114741893612</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>28.54392863692994</v>
+        <v>13.54559421066371</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>28.54392863692994</v>
+        <v>38.78145100369228</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>28.54392863692994</v>
+        <v>46.81579968370194</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>28.54392863692994</v>
+        <v>16.10902334560434</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.54392863692994</v>
+        <v>33.12227596828758</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.54392863692994</v>
+        <v>39.99726796120673</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>28.54392863692994</v>
+        <v>26.6711339709001</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>28.54392863692994</v>
+        <v>41.74087984038489</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>28.54392863692994</v>
+        <v>48.56039801575493</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.54392863692994</v>
+        <v>45.10113570706382</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.54392863692994</v>
+        <v>52.88864000121272</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>28.54392863692994</v>
+        <v>58.26276702789757</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>28.54392863692994</v>
+        <v>23.86436233362225</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>28.54392863692994</v>
+        <v>44.85388662729976</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>28.54392863692994</v>
+        <v>54.0322027711335</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.54392863692994</v>
+        <v>5.354643124415148</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.54392863692994</v>
+        <v>30.58579114604903</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.54392863692994</v>
+        <v>38.61686895762035</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>28.54392863692994</v>
+        <v>7.925292812561352</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.54392863692994</v>
+        <v>24.93310178714093</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.54392863692994</v>
+        <v>31.80530969100109</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.54392863692994</v>
+        <v>18.48101484771099</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>28.54392863692994</v>
+        <v>33.54510003351608</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>28.54392863692994</v>
+        <v>40.36221377001586</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.54392863692994</v>
+        <v>36.89851079829442</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.54392863692994</v>
+        <v>44.68144583584434</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>28.54392863692994</v>
+        <v>50.05381481427459</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.54392863692994</v>
+        <v>15.6665458261556</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>28.54392863692994</v>
+        <v>36.64683489381117</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>28.54392863692994</v>
+        <v>45.82337885353776</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>28.54392863692994</v>
+        <v>8.429596714306754</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.54392863692994</v>
+        <v>33.66477160218314</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>28.54392863692994</v>
+        <v>41.69903828469616</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.54392863692994</v>
+        <v>10.99031078042619</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.54392863692994</v>
+        <v>28.0019427258966</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>28.54392863692994</v>
+        <v>34.87703607090465</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>28.54392863692994</v>
+        <v>21.55079024760586</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.54392863692994</v>
+        <v>36.61896393696169</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>28.54392863692994</v>
+        <v>43.43847792284124</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.54392863692994</v>
+        <v>39.97527583350065</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.54392863692994</v>
+        <v>47.76219146531231</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.54392863692994</v>
+        <v>53.13685359542775</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.54392863692994</v>
+        <v>18.7418120809249</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.54392863692994</v>
+        <v>39.72941069771288</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>28.54392863692994</v>
+        <v>48.90783824667837</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>28.54392863692994</v>
+        <v>17.12488761899841</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>28.54392863692994</v>
+        <v>42.36306951792473</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.54392863692994</v>
+        <v>50.39842178821176</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>28.54392863692994</v>
+        <v>19.68867523886401</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.54392863692994</v>
+        <v>36.70345790897433</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>28.54392863692994</v>
+        <v>43.57956702430057</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>28.54392863692994</v>
+        <v>30.25177224229357</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.54392863692994</v>
+        <v>45.3229261504414</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.54392863692994</v>
+        <v>52.14343494867195</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.54392863692994</v>
+        <v>48.68291316462798</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>28.54392863692994</v>
+        <v>56.47130447774602</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>28.54392863692994</v>
+        <v>61.84630405487464</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>28.54392863692994</v>
+        <v>27.44516931151942</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>28.54392863692994</v>
+        <v>48.43625520624222</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>28.54392863692994</v>
+        <v>57.61611573419124</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>28.54392863692994</v>
+        <v>3.357807436618955</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.54392863692994</v>
+        <v>28.58724143179428</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>28.54392863692994</v>
+        <v>36.61807875570891</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>28.54392863692994</v>
+        <v>5.927842264700089</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.54392863692994</v>
+        <v>22.934124149033</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.54392863692994</v>
+        <v>29.80615128321223</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>28.54392863692994</v>
+        <v>16.4826027587426</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.54392863692994</v>
+        <v>31.54534412184809</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.54392863692994</v>
+        <v>38.36224478833743</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>28.54392863692994</v>
+        <v>34.89839977030978</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>28.54392863692994</v>
+        <v>42.68076540620304</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>28.54392863692994</v>
+        <v>48.05307388960297</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>28.54392863692994</v>
+        <v>13.66811711822631</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.54392863692994</v>
+        <v>34.64665911760962</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>28.54392863692994</v>
+        <v>43.82295710054451</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>28.54392863692994</v>
+        <v>6.433736302978915</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>28.54392863692994</v>
+        <v>31.66719697126349</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.54392863692994</v>
+        <v>39.70122312332127</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>28.54392863692994</v>
+        <v>8.993836021220218</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.54392863692994</v>
+        <v>26.00394068704112</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.54392863692994</v>
+        <v>32.87885323985417</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.54392863692994</v>
+        <v>19.55335371465561</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.54392863692994</v>
+        <v>34.62018337501969</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.54392863692994</v>
+        <v>41.43948428739738</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.54392863692994</v>
+        <v>37.9761400215199</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.54392863692994</v>
+        <v>45.7624860913585</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.54392863692994</v>
+        <v>51.13708768096048</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.54392863692994</v>
+        <v>16.74435860007226</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.54392863692994</v>
+        <v>37.73020980190701</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>28.54392863692994</v>
+        <v>46.90839139806612</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>28.54392863692994</v>
+        <v>15.12851721360973</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>28.54392863692994</v>
+        <v>40.3649847980853</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>28.54392863692994</v>
+        <v>48.40009646733883</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>28.54392863692994</v>
+        <v>17.6916903442882</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>28.54392863692994</v>
+        <v>34.70494562844296</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.54392863692994</v>
+        <v>41.58087387115724</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>28.54392863692994</v>
+        <v>28.25382546109337</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>28.54392863692994</v>
+        <v>43.3236352406342</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.54392863692994</v>
+        <v>50.14393088402313</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.54392863692994</v>
+        <v>46.68326683144541</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.54392863692994</v>
+        <v>54.47108854649504</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>28.54392863692994</v>
+        <v>59.84602756782023</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.54392863692994</v>
+        <v>25.44720547853639</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>28.54392863692994</v>
+        <v>46.43654382057368</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>28.54392863692994</v>
+        <v>55.6161583280723</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.54392863692994</v>
+        <v>0.5411706212538689</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.54392863692994</v>
+        <v>25.77155278598094</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>28.54392863692994</v>
+        <v>33.80224295160635</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>28.54392863692994</v>
+        <v>3.111251825199261</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.54392863692994</v>
+        <v>20.11852526481847</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.54392863692994</v>
+        <v>26.99025659374992</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.54392863692994</v>
+        <v>13.66675326761562</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.54392863692994</v>
+        <v>28.73035672859193</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.54392863692994</v>
+        <v>35.54709698939884</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.54392863692994</v>
+        <v>32.08418502870724</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>28.54392863692994</v>
+        <v>39.86681269889131</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.54392863692994</v>
+        <v>45.2387313034309</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>28.54392863692994</v>
+        <v>10.85199185127023</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>28.54392863692994</v>
+        <v>31.83193306244449</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>28.54392863692994</v>
+        <v>41.00777937084798</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>28.54392863692994</v>
+        <v>3.614108896354665</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>28.54392863692994</v>
+        <v>28.84851781367151</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>28.54392863692994</v>
+        <v>36.88239687006207</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.54392863692994</v>
+        <v>6.174254871496728</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.54392863692994</v>
+        <v>23.18535119489231</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.54392863692994</v>
+        <v>30.05996798108539</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.54392863692994</v>
+        <v>16.73451359795946</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.54392863692994</v>
+        <v>31.80220543071677</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.54392863692994</v>
+        <v>38.62134599657249</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>28.54392863692994</v>
+        <v>35.15893489936481</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>28.54392863692994</v>
+        <v>42.94554299352571</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.54392863692994</v>
+        <v>48.31975469688179</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.54392863692994</v>
+        <v>13.92524303630013</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.54392863692994</v>
+        <v>34.91249357501194</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.54392863692994</v>
+        <v>44.09022363645546</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.54392863692994</v>
+        <v>12.31071043890167</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>28.54392863692994</v>
+        <v>37.5481264079116</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.54392863692994</v>
+        <v>45.58309108063453</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>28.54392863692994</v>
+        <v>14.87392976107573</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.54392863692994</v>
+        <v>31.88817687835764</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.54392863692994</v>
+        <v>38.76380944761662</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>28.54392863692994</v>
+        <v>25.43680607607872</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>28.54392863692994</v>
+        <v>40.50747820166784</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>28.54392863692994</v>
+        <v>47.32761359764824</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>28.54392863692994</v>
+        <v>43.86788254063835</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.54392863692994</v>
+        <v>51.65596631403913</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.54392863692994</v>
+        <v>57.03051556670506</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.54392863692994</v>
+        <v>22.62991059423588</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>28.54392863692994</v>
+        <v>43.62064853194398</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>28.54392863692994</v>
+        <v>52.79981152730262</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>28.54392863692994</v>
+        <v>-5.639931650782486</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.54392863692994</v>
+        <v>19.58782059942327</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>28.54392863692994</v>
+        <v>27.61817828753637</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.54392863692994</v>
+        <v>-3.071138469625552</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>28.54392863692994</v>
+        <v>13.93389568322335</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>28.54392863692994</v>
+        <v>20.80542271351182</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.54392863692994</v>
+        <v>7.482923215936253</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.54392863692994</v>
+        <v>22.54451997845321</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.54392863692994</v>
+        <v>29.36096542277518</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.54392863692994</v>
+        <v>25.89811457391023</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.54392863692994</v>
+        <v>33.67987583719118</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.54392863692994</v>
+        <v>39.0517398689782</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.54392863692994</v>
+        <v>4.668879354623769</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.54392863692994</v>
+        <v>25.64601702690108</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>28.54392863692994</v>
+        <v>34.82165640371649</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.54392863692994</v>
+        <v>-2.563487265890089</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.54392863692994</v>
+        <v>22.66829161406964</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.54392863692994</v>
+        <v>30.70183814399412</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.54392863692994</v>
+        <v>-0.004628582221116062</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.54392863692994</v>
+        <v>17.00422833093639</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.54392863692994</v>
+        <v>23.87864082246371</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.54392863692994</v>
+        <v>10.55419016370708</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>28.54392863692994</v>
+        <v>25.61987518553373</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.54392863692994</v>
+        <v>32.43872092242499</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.54392863692994</v>
+        <v>28.97637061500224</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.54392863692994</v>
+        <v>36.76211220542895</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.54392863692994</v>
+        <v>42.13626935291326</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.54392863692994</v>
+        <v>7.745636514018102</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.54392863692994</v>
+        <v>28.73008321578369</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>28.54392863692994</v>
+        <v>37.90760640096984</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>28.54392863692994</v>
+        <v>6.13222453092591</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.54392863692994</v>
+        <v>31.36701024749028</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.54392863692994</v>
+        <v>39.40164224076911</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.54392863692994</v>
+        <v>8.694156355805049</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>28.54392863692994</v>
+        <v>25.70616381150525</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.54392863692994</v>
+        <v>32.58159195037332</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.54392863692994</v>
+        <v>19.25559250916025</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.54392863692994</v>
+        <v>34.32425757343812</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.54392863692994</v>
+        <v>41.14409799983345</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>28.54392863692994</v>
+        <v>37.68442768131696</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>28.54392863692994</v>
+        <v>45.47164484239035</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.54392863692994</v>
+        <v>50.84613939083364</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>28.54392863692994</v>
+        <v>16.44941377277543</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>28.54392863692994</v>
+        <v>37.43734753899061</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>28.54392863692994</v>
+        <v>46.61630353769353</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>28.54392863692994</v>
+        <v>1.653593933095195</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>28.54392863692994</v>
+        <v>26.88278060457459</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.54392863692994</v>
+        <v>34.91363649343295</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>28.54392863692994</v>
+        <v>4.223381767447464</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>28.54392863692994</v>
+        <v>21.22943226974463</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.54392863692994</v>
+        <v>28.10148568376918</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>28.54392863692994</v>
+        <v>14.7780133842423</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>28.54392863692994</v>
+        <v>29.840549041214</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.54392863692994</v>
+        <v>36.65746671132537</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.54392863692994</v>
+        <v>33.19368752944969</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>28.54392863692994</v>
+        <v>40.97596694510516</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>28.54392863692994</v>
+        <v>46.34829796279281</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.54392863692994</v>
+        <v>11.96366074501977</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.54392863692994</v>
+        <v>32.94196768590668</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>28.54392863692994</v>
+        <v>42.11827705599309</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.54392863692994</v>
+        <v>4.728973633273895</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>28.54392863692994</v>
+        <v>29.96218695738459</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>28.54392863692994</v>
+        <v>37.99623170569033</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.54392863692994</v>
+        <v>7.288826377198703</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>28.54392863692994</v>
+        <v>24.2986996425558</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.54392863692994</v>
+        <v>31.17363851131246</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.54392863692994</v>
+        <v>17.84821514528097</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.54392863692994</v>
+        <v>32.91483908434567</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>28.54392863692994</v>
+        <v>39.73415703137495</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.54392863692994</v>
+        <v>36.27087858088795</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.54392863692994</v>
+        <v>44.05713842343461</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.54392863692994</v>
+        <v>49.43176256806602</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>28.54392863692994</v>
+        <v>15.03935301983553</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.54392863692994</v>
+        <v>36.02496913801191</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.54392863692994</v>
+        <v>45.20316216253356</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.54392863692994</v>
+        <v>13.42392065516437</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.54392863692994</v>
+        <v>38.66014089744512</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.54392863692994</v>
+        <v>46.69527115099812</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.54392863692994</v>
+        <v>15.9868468131606</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.54392863692994</v>
+        <v>32.99987069753401</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.54392863692994</v>
+        <v>39.8758252455366</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.54392863692994</v>
+        <v>26.54885300823516</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>28.54392863692994</v>
+        <v>41.61845706570297</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.54392863692994</v>
+        <v>48.43876973312867</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>28.54392863692994</v>
+        <v>44.9781714901459</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.54392863692994</v>
+        <v>52.76590697308008</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.54392863692994</v>
+        <v>58.14086854318408</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>28.54392863692994</v>
+        <v>23.74236600212045</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>28.54392863692994</v>
+        <v>44.73146925088021</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>28.54392863692994</v>
+        <v>53.91109517969529</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>28.54392863692994</v>
+        <v>5.19840590029095</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.54392863692994</v>
+        <v>30.42763923939948</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>28.54392863692994</v>
+        <v>38.45790466732412</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>28.54392863692994</v>
+        <v>7.769123890242682</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>28.54392863692994</v>
+        <v>24.77562346251854</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>28.54392863692994</v>
+        <v>31.64701952195857</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>28.54392863692994</v>
+        <v>18.32414245699205</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>28.54392863692994</v>
+        <v>33.38699035239485</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>28.54392863692994</v>
+        <v>40.20334929817274</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>28.54392863692994</v>
+        <v>36.74022972322918</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>28.54392863692994</v>
+        <v>44.52247705680089</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>28.54392863692994</v>
+        <v>49.89415531940223</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>28.54392863692994</v>
+        <v>15.50963543647119</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>28.54392863692994</v>
+        <v>36.48830109107361</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>28.54392863692994</v>
+        <v>45.66401149318519</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>28.54392863692994</v>
+        <v>8.27293440296468</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>28.54392863692994</v>
+        <v>33.50619434036209</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>28.54392863692994</v>
+        <v>41.53964840287007</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>28.54392863692994</v>
+        <v>10.83371735843754</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>28.54392863692994</v>
+        <v>27.84403965241496</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>28.54392863692994</v>
+        <v>34.71832095423316</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>28.54392863692994</v>
+        <v>21.39349309511273</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>28.54392863692994</v>
+        <v>36.46042921793789</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>28.54392863692994</v>
+        <v>43.27918825390942</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.54392863692994</v>
+        <v>39.81656945190925</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>28.54392863692994</v>
+        <v>47.60279703834421</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>28.54392863692994</v>
+        <v>52.97676824597887</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>28.54392863692994</v>
+        <v>18.58447649844403</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>28.54392863692994</v>
+        <v>39.57045123256252</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>28.54392863692994</v>
+        <v>48.74804504357873</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>28.54392863692994</v>
+        <v>16.96858435696926</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>28.54392863692994</v>
+        <v>42.20485117965758</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>28.54392863692994</v>
+        <v>50.23939074344231</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>28.54392863692994</v>
+        <v>19.53244052161087</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>28.54392863692994</v>
+        <v>36.5459134148589</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>28.54392863692994</v>
+        <v>43.4212103967683</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>28.54392863692994</v>
+        <v>30.09483370377974</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>28.54392863692994</v>
+        <v>45.16474993198007</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>28.54392863692994</v>
+        <v>51.98450369277442</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>28.54392863692994</v>
+        <v>48.52456491436898</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>28.54392863692994</v>
+        <v>56.31226808762166</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>28.54392863692994</v>
+        <v>61.6865767800066</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>28.54392863692994</v>
+        <v>27.28819202088359</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>28.54392863692994</v>
+        <v>48.27765392482662</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>28.54392863692994</v>
+        <v>57.45668059993808</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>28.54392863692994</v>
+        <v>1.396745275760864</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>28.54392863692994</v>
+        <v>26.62707047496839</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>28.54392863692994</v>
+        <v>34.65775249610773</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>28.54392863692994</v>
+        <v>3.966888264587865</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>28.54392863692994</v>
+        <v>20.97414302020276</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>28.54392863692994</v>
+        <v>27.84588506666786</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>28.54392863692994</v>
+        <v>14.52238302865818</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>28.54392863692994</v>
+        <v>29.58598152479091</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>28.54392863692994</v>
+        <v>36.40272159108851</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>28.54392863692994</v>
+        <v>32.9397427510204</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>28.54392863692994</v>
+        <v>40.72236151791095</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>28.54392863692994</v>
+        <v>46.09431308045704</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>28.54392863692994</v>
+        <v>11.70763388447462</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>28.54392863692994</v>
+        <v>32.68755504667412</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>28.54392863692994</v>
+        <v>41.86339921445644</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>28.54392863692994</v>
+        <v>4.469985867501592</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>28.54392863692994</v>
+        <v>29.70433779880047</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>28.54392863692994</v>
+        <v>37.73820869444377</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>28.54392863692994</v>
+        <v>7.030193665486891</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>28.54392863692994</v>
+        <v>24.04127128201232</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>28.54392863692994</v>
+        <v>30.91589877607079</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>28.54392863692994</v>
+        <v>17.59044570946868</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>28.54392863692994</v>
+        <v>32.65813255917205</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>28.54392863692994</v>
+        <v>39.477272918081</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>28.54392863692994</v>
+        <v>36.01479492376178</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>28.54392863692994</v>
+        <v>43.80139409778509</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>28.54392863692994</v>
+        <v>49.17563875371833</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>28.54392863692994</v>
+        <v>14.78118738821878</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>28.54392863692994</v>
+        <v>35.76841785258763</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>28.54392863692994</v>
+        <v>44.94614574621052</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>28.54392863692994</v>
+        <v>13.16586797945912</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>28.54392863692994</v>
+        <v>38.40322691778717</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>28.54392863692994</v>
+        <v>46.43818342842691</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>28.54392863692994</v>
+        <v>15.72914910201918</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>28.54392863692994</v>
+        <v>32.74337746311052</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>28.54392863692994</v>
+        <v>39.61902074298293</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>28.54392863692994</v>
+        <v>26.29201867411247</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>28.54392863692994</v>
+        <v>41.36268577118337</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>28.54392863692994</v>
+        <v>48.18282096041277</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>28.54392863692994</v>
+        <v>44.72302302219249</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>28.54392863692994</v>
+        <v>52.51109785884252</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>28.54392863692994</v>
+        <v>57.88568005781691</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>28.54392863692994</v>
+        <v>23.48513545039613</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>28.54392863692994</v>
+        <v>44.47585324558442</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>28.54392863692994</v>
+        <v>53.65501409065008</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1.460652109931274</v>
+        <v>-1.460652109916381</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23.76890957732236</v>
+        <v>23.76890957728882</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31.79990124121981</v>
+        <v>31.79990124122357</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.108701710104256</v>
+        <v>1.108701710090386</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.11500904112758</v>
+        <v>18.11500904112121</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.98716717817821</v>
+        <v>24.98716717819254</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>11.66356989144209</v>
+        <v>11.66356989140469</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.72632597373639</v>
+        <v>26.72632597373264</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33.54335043868049</v>
+        <v>33.54335043868947</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30.07992759759328</v>
+        <v>30.07992759761659</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>37.86231329988165</v>
+        <v>37.8623132999253</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>43.23466215018665</v>
+        <v>43.23466215021462</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8.849476509839079</v>
+        <v>8.849476509900356</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.82812700788953</v>
+        <v>29.82812700789863</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>39.0045202601092</v>
+        <v>39.00452026012512</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1.615905533156834</v>
+        <v>1.615905533065543</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.84949402540327</v>
+        <v>26.8494940253661</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.8836746508256</v>
+        <v>34.88367465081082</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.175324083662773</v>
+        <v>4.175324083628212</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>21.18545432786119</v>
+        <v>21.18545432785756</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.06049801848532</v>
+        <v>28.06049801849225</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>14.73494963110114</v>
+        <v>14.73494963111308</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.80179415374302</v>
+        <v>29.80179415377371</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>36.62121897462511</v>
+        <v>36.62121897464978</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>33.15829678639297</v>
+        <v>33.15829678640445</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>40.94466303652543</v>
+        <v>40.9446630365244</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>46.31930507362746</v>
+        <v>46.31930507365793</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>11.92634679556762</v>
+        <v>11.92634679555773</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.91230671523182</v>
+        <v>32.91230671522864</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>42.09058371360835</v>
+        <v>42.0905837136079</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>10.311470798173</v>
+        <v>10.3114707981314</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.5480662811964</v>
+        <v>35.54806628119515</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43.58333242719563</v>
+        <v>43.58333242717721</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>12.87396281535713</v>
+        <v>12.87396281531075</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.88724376026654</v>
+        <v>29.8872437603027</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36.76330314903113</v>
+        <v>36.76330314908093</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>23.43620586155716</v>
+        <v>23.43620586157864</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>38.50603057407183</v>
+        <v>38.50603057411389</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>45.32645013521427</v>
+        <v>45.32645013521211</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>41.86620819592203</v>
+        <v>41.86620819593601</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>49.65405011284805</v>
+        <v>49.65405011292275</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>55.02902957371761</v>
+        <v>55.02902957378127</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>20.62997820033981</v>
+        <v>20.62997820030991</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>41.61942532588297</v>
+        <v>41.61942532585853</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>50.79913524352425</v>
+        <v>50.79913524355904</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4.310044519160343</v>
+        <v>4.310044519091448</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.54056511388775</v>
+        <v>29.54056511384853</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>37.57086175883695</v>
+        <v>37.57086175877477</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.881355289598346</v>
+        <v>6.881355289595049</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>23.88908049300075</v>
+        <v>23.88908049297835</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.76036940268558</v>
+        <v>30.76036940270377</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>17.43682246720699</v>
+        <v>17.43682246719074</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>32.50075275978453</v>
+        <v>32.50075275980932</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>39.31709188244157</v>
+        <v>39.31709188243339</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>35.85440088531153</v>
+        <v>35.85440088525696</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>43.6370279120131</v>
+        <v>43.63702791204152</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>49.00866243651298</v>
+        <v>49.00866243648763</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>14.62204392880007</v>
+        <v>14.62204392876824</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>35.60229005152793</v>
+        <v>35.60229005151554</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>44.77766850135039</v>
+        <v>44.77766850136346</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>7.381252697710138</v>
+        <v>7.381252697707751</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.61579997097387</v>
+        <v>32.61579997093794</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>40.64928537320294</v>
+        <v>40.64928537316702</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>9.942628381614909</v>
+        <v>9.942628381603086</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26.95417638889286</v>
+        <v>26.95417638887172</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>33.8283506215064</v>
+        <v>33.82835062150765</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>20.50285274913166</v>
+        <v>20.50285274914701</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>35.57087133321205</v>
+        <v>35.57087133324093</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>42.38961064603451</v>
+        <v>42.38961064607658</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>38.92742065071754</v>
+        <v>38.92742065070674</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>46.71402799925126</v>
+        <v>46.71402799926319</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>52.08795556299573</v>
+        <v>52.08795556299016</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>17.69356509274759</v>
+        <v>17.69356509276749</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>38.68112043898283</v>
+        <v>38.68112043901932</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>47.85838247803635</v>
+        <v>47.85838247806932</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>16.07945089228896</v>
+        <v>16.079450892266</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>41.31700517761136</v>
+        <v>41.31700517764376</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>49.35157617976121</v>
+        <v>49.3515761797487</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>18.64389983260061</v>
+        <v>18.6438998326329</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35.65859859340254</v>
+        <v>35.65859859342028</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>42.5337885985381</v>
+        <v>42.53378859852218</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.20674189285729</v>
+        <v>29.20674189284559</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>44.27774073424918</v>
+        <v>44.2777407342643</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>51.0974748705578</v>
+        <v>51.0974748706043</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>47.63796477479788</v>
+        <v>47.63796477476718</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>55.42604773760151</v>
+        <v>55.42604773764107</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>60.8003128391738</v>
+        <v>60.80031283915118</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.3998290906534</v>
+        <v>26.39982909068432</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>47.3908718315737</v>
+        <v>47.39087183156325</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>56.56956677272593</v>
+        <v>56.56956677274185</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3.218701115475838</v>
+        <v>3.218701115395916</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.44903372772866</v>
+        <v>28.44903372768216</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>36.4791987113348</v>
+        <v>36.47919871129911</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5.78966647184906</v>
+        <v>5.789666471848832</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>22.79713883152216</v>
+        <v>22.79713883153308</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.66828578014294</v>
+        <v>29.66828578017386</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>16.34511847450064</v>
+        <v>16.34511847448472</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>31.40883568464291</v>
+        <v>31.40883568465667</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>38.22504475381506</v>
+        <v>38.2250447538046</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>34.76256802982358</v>
+        <v>34.76256802980471</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>42.54514804128543</v>
+        <v>42.5451480413051</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>47.91665760140008</v>
+        <v>47.91665760140712</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>13.530442697195</v>
+        <v>13.53044269720012</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>34.51044159238576</v>
+        <v>34.51044159238997</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>43.68566123577945</v>
+        <v>43.68566123577729</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>6.293285088940721</v>
+        <v>6.293285088953795</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.52764449428584</v>
+        <v>31.52764449423888</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>39.56099820253532</v>
+        <v>39.56099820251156</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>8.854315531731132</v>
+        <v>8.854315531676789</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>25.8656108143298</v>
+        <v>25.86561081433003</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>32.73964305665085</v>
+        <v>32.7396430566322</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>19.41452488878635</v>
+        <v>19.41452488880317</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>34.4823304918673</v>
+        <v>34.48233049187583</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>41.30093972314673</v>
+        <v>41.30093972315719</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>37.83896380088915</v>
+        <v>37.83896380088812</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>45.62552415708605</v>
+        <v>45.62552415709503</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>50.99932672801675</v>
+        <v>50.99932672799208</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>16.60533975069883</v>
+        <v>16.6053397507235</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>37.59264795057324</v>
+        <v>37.59264795057176</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>46.76975116645134</v>
+        <v>46.76975116646521</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>14.99123658674831</v>
+        <v>14.99123658676866</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.22860300148217</v>
+        <v>40.22860300147194</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>48.26304233072314</v>
+        <v>48.26304233062696</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>17.55534025394196</v>
+        <v>17.5553402539331</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>34.56978628609319</v>
+        <v>34.56978628606466</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>41.44483432373512</v>
+        <v>41.44483432369863</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>28.11816727631027</v>
+        <v>28.11816727631778</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>43.18895313005898</v>
+        <v>43.18895313005432</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>50.00855720563688</v>
+        <v>50.00855720565654</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>46.54926119045139</v>
+        <v>46.54926119042899</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>54.33729713666538</v>
+        <v>54.33729713667437</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>59.7114372768374</v>
+        <v>59.71143727686923</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>25.31135699201879</v>
+        <v>25.31135699203027</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>46.30215257977092</v>
+        <v>46.3021525797359</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>55.48068871202919</v>
+        <v>55.48068871203715</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-4.043404348055205</v>
+        <v>-4.04340434808158</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>21.18562169343024</v>
+        <v>21.18562169343717</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.21632593322626</v>
+        <v>29.21632593320739</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-1.474350298849672</v>
+        <v>-1.474350298898784</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>15.53146935426879</v>
+        <v>15.53146935429858</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>22.40332930540843</v>
+        <v>22.40332930537672</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>9.080219306222503</v>
+        <v>9.080219306186578</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>24.14252655245595</v>
+        <v>24.14252655243492</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>30.95926684509847</v>
+        <v>30.95926684513155</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>27.49607714208527</v>
+        <v>27.49607714202013</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>35.27828187548916</v>
+        <v>35.27828187549996</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>40.65050909418086</v>
+        <v>40.65050909421178</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>6.266378688746855</v>
+        <v>6.266378688704904</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>27.24447616084446</v>
+        <v>27.24447616083343</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>36.42050937809019</v>
+        <v>36.4205093780413</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-0.9679917708914303</v>
+        <v>-0.9679917708864281</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>24.26506097739447</v>
+        <v>24.2650609773615</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>32.29895412425891</v>
+        <v>32.29895412421321</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1.591127042827694</v>
+        <v>1.59112704277085</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>18.60076950561371</v>
+        <v>18.60076950564532</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>25.4755149567019</v>
+        <v>25.47551495667041</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>27.21684947829102</v>
+        <v>27.21684947827102</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>34.03599009667097</v>
+        <v>34.03599009667256</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>30.57330109391638</v>
+        <v>30.57330109394447</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>38.35948632699537</v>
+        <v>38.35948632700742</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>43.73400667034333</v>
+        <v>43.73400667033924</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>9.342103807427193</v>
+        <v>9.342103807431627</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>30.32751051984293</v>
+        <v>30.32751051978495</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>39.5054274436484</v>
+        <v>39.50542744362782</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>7.728431657006823</v>
+        <v>7.728431657005117</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.96449138637128</v>
+        <v>32.96449138633433</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>40.99947004617265</v>
+        <v>40.99947004617412</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>10.29062385256499</v>
+        <v>10.29062385255874</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>27.30341699921748</v>
+        <v>27.30341699924476</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.17917813728856</v>
+        <v>34.17917813729424</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>20.85256827108414</v>
+        <v>20.85256827105742</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>35.92194401747521</v>
+        <v>35.92194401751102</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>42.74207936639688</v>
+        <v>42.74207936643917</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>39.28207047864557</v>
+        <v>39.28207047861362</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>47.06973136679984</v>
+        <v>47.06973136677756</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>52.44458914114183</v>
+        <v>52.44458914112921</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>18.04659319536076</v>
+        <v>18.04659319530425</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>39.03548711816303</v>
+        <v>39.03548711813677</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>48.2148369354011</v>
+        <v>48.21483693540564</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>4.32817001037894</v>
+        <v>4.328170010400996</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.55827299832914</v>
+        <v>29.55827299832471</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>37.58902334617564</v>
+        <v>37.58902334612846</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>6.898125134289117</v>
+        <v>6.898125134285252</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>23.90506459881011</v>
+        <v>23.90506459880284</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>30.7769573614312</v>
+        <v>30.77695736136913</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>17.45345904346017</v>
+        <v>17.45345904343004</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>32.5167710964205</v>
+        <v>32.51677109637309</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>39.33357407350049</v>
+        <v>39.33357407344944</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>35.87000578247536</v>
+        <v>35.87000578246047</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>43.65264167713373</v>
+        <v>43.65264167713919</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>49.02483959173982</v>
+        <v>49.02483959173777</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>14.63905353702252</v>
+        <v>14.63905353707197</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>35.61821506816331</v>
+        <v>35.61821506816513</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>44.79431084978809</v>
+        <v>44.79431084976763</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>7.406514851187708</v>
+        <v>7.406514851157354</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>32.64064463694753</v>
+        <v>32.64064463692581</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>40.67458378028608</v>
+        <v>40.67458378024584</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>9.96653479315718</v>
+        <v>9.966534793162637</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>26.97729716588834</v>
+        <v>26.97729716588471</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>33.85207529694891</v>
+        <v>33.85207529698495</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>35.59402661580704</v>
+        <v>35.59402661582227</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>42.41322979286396</v>
+        <v>42.41322979289954</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>38.95016226846259</v>
+        <v>38.95016226844315</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>46.73677866814241</v>
+        <v>46.73677866815594</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>52.11126966057169</v>
+        <v>52.1112696606058</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>17.71771121418136</v>
+        <v>17.71771121418239</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>38.70418210470736</v>
+        <v>38.70418210463141</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>47.88216146631886</v>
+        <v>47.88216146631841</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>16.10111170077552</v>
+        <v>16.10111170070026</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>41.33824839943044</v>
+        <v>41.33824839939645</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>49.37327310299987</v>
+        <v>49.37327310302852</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>18.664205009095</v>
+        <v>18.66420500912137</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>35.67811799996322</v>
+        <v>35.67811799996572</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>42.55391186605063</v>
+        <v>42.55391186602766</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.22691382490679</v>
+        <v>29.22691382487007</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>44.29729440536734</v>
+        <v>44.29729440538212</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>51.11749236325649</v>
+        <v>51.11749236329639</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>47.65710506372774</v>
+        <v>47.6571050637008</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>55.44519710482986</v>
+        <v>55.44519710479905</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>60.82002554306008</v>
+        <v>60.82002554308646</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>26.42037406765759</v>
+        <v>26.42037406767135</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>47.41033211806759</v>
+        <v>47.41033211804223</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>56.58974442067348</v>
+        <v>56.58974442070463</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>6.741349700089941</v>
+        <v>6.741349700050719</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>31.97053726614037</v>
+        <v>31.97053726613582</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>40.00007148520901</v>
+        <v>40.00007148520935</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>9.312855215063806</v>
+        <v>9.312855215002415</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>26.31985176810032</v>
+        <v>26.31985176809771</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>33.19050669956063</v>
+        <v>33.19050669952618</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>19.86787297182822</v>
+        <v>19.86787297177536</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>34.93112485363794</v>
+        <v>34.93112485366704</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>41.74686194647769</v>
+        <v>41.74686194644279</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>38.2841017718895</v>
+        <v>38.28410177191269</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>46.06646530297179</v>
+        <v>46.06646530299044</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>51.43769127528346</v>
+        <v>51.43769127525549</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>17.05315978784292</v>
+        <v>17.05315978785156</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>38.03204767543743</v>
+        <v>38.03204767537342</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>47.20666746815188</v>
+        <v>47.2066674681022</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>9.821412899045086</v>
+        <v>9.821412899049179</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>35.05462706144478</v>
+        <v>35.05462706140237</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>43.08734963581243</v>
+        <v>43.08734963577116</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>12.38298427757822</v>
+        <v>12.3829842776404</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.39380356875155</v>
+        <v>29.3938035687295</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>36.2673434343592</v>
+        <v>36.26734343439558</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>22.94275926002355</v>
+        <v>22.94275926009233</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>38.01009933043203</v>
+        <v>38.01009933047898</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>44.82823625036339</v>
+        <v>44.82823625036919</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>41.36597680421632</v>
+        <v>41.36597680420427</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>49.15232045960956</v>
+        <v>49.15232045963843</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>54.52583920155963</v>
+        <v>54.5258392015818</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>20.13353621735804</v>
+        <v>20.13353621738476</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>41.11973300291528</v>
+        <v>41.11973300291767</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>50.29623605943222</v>
+        <v>50.29623605942437</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>18.51653190914762</v>
+        <v>18.51653190913648</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>21.08117615294863</v>
+        <v>21.081176153063</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>38.09514578645418</v>
+        <v>38.09514578645384</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>44.96970134638538</v>
+        <v>44.96970134642176</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>31.64356853131393</v>
+        <v>31.64356853138305</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>46.71388846584979</v>
+        <v>46.71388846578988</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>53.533020143993</v>
+        <v>53.53302014402449</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>50.0734405850409</v>
+        <v>50.07344058502362</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>57.86125969511444</v>
+        <v>57.86125969510717</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>63.2351159075579</v>
+        <v>63.23511590755585</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>28.83672030906565</v>
+        <v>28.836720309071</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>49.8264040577309</v>
+        <v>49.826404057716</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>59.00433991774629</v>
+        <v>59.00433991769718</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-4.297401004087064</v>
+        <v>-4.297401004027037</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>20.92997415986908</v>
+        <v>20.92997415987362</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>28.95986271192898</v>
+        <v>28.95986271193296</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-1.727691408353948</v>
+        <v>-1.727691408377368</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>15.27731886931271</v>
+        <v>15.27731886934193</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>22.14833592998561</v>
+        <v>22.14833593006212</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>8.826210560888867</v>
+        <v>8.826210560866016</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>23.88771567724883</v>
+        <v>23.88771567724702</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>30.70372912206552</v>
+        <v>30.70372912207246</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>27.24164797312757</v>
+        <v>27.24164797310893</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>35.02333290345554</v>
+        <v>35.02333290342325</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>40.39470354994957</v>
+        <v>40.39470355003688</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>6.012570939530079</v>
+        <v>6.012570939505977</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>26.98962034697401</v>
+        <v>26.9896203469382</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>36.16463028745331</v>
+        <v>36.16463028745092</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-1.219675462877248</v>
+        <v>-1.219675462871564</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>24.01172631412443</v>
+        <v>24.0117263141375</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>32.04480360578215</v>
+        <v>32.04480360578454</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>1.340099982060238</v>
+        <v>1.340099982083316</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>18.34893301341801</v>
+        <v>18.34893301339686</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>25.22283544644735</v>
+        <v>25.22283544645281</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>11.89875904013878</v>
+        <v>11.89875904017482</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>26.96435239971994</v>
+        <v>26.96435239973688</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>33.78276604264296</v>
+        <v>33.78276604262966</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>30.32118523220119</v>
+        <v>30.3211852322237</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>38.10685033920244</v>
+        <v>38.10685033920403</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>43.48051397678729</v>
+        <v>43.48051397680651</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>9.090609309363018</v>
+        <v>9.090609309383368</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>30.07496771468858</v>
+        <v>30.07496771468824</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>39.25186131814191</v>
+        <v>39.25186131809404</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>7.477830149549064</v>
+        <v>7.477830149582488</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>32.7122387467099</v>
+        <v>32.71223874673741</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>40.74640146478511</v>
+        <v>40.7464014647875</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>10.04067866933214</v>
+        <v>10.04067866937284</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>27.05266223069272</v>
+        <v>27.05266223071693</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>33.9275802805321</v>
+        <v>33.92758028050663</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>20.60195521840105</v>
+        <v>20.60195521840923</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>35.67052860131027</v>
+        <v>35.67052860136495</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>42.48993691467821</v>
+        <v>42.48993691466491</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>39.0310359780698</v>
+        <v>39.03103597809958</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>46.81817657620117</v>
+        <v>46.8181765761757</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>52.19217766910153</v>
+        <v>52.19217766913859</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>17.79618019576448</v>
+        <v>17.79618019585349</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>38.784025652138</v>
+        <v>38.78402565211924</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>47.96235201236563</v>
+        <v>47.9623520123729</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>-6.967302001195876</v>
+        <v>-6.967302001188258</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>18.26230961001842</v>
+        <v>18.26230961003024</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>26.29307685234484</v>
+        <v>26.29307685231267</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-4.397746319236248</v>
+        <v>-4.397746319261827</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>12.60867983013385</v>
+        <v>12.60867983014602</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>19.48058077429677</v>
+        <v>19.48058077434656</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>6.156879960415964</v>
+        <v>6.15687996040414</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>21.21971325270694</v>
+        <v>21.21971325272649</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.03653268985148</v>
+        <v>28.03653268982988</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>24.57353375568358</v>
+        <v>24.57353375569222</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>32.35604847552737</v>
+        <v>32.35604847547235</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>37.72826851641311</v>
+        <v>37.72826851639037</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>3.343046480915305</v>
+        <v>3.343046480843796</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>24.32177754485021</v>
+        <v>24.32177754486646</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>33.49785239816335</v>
+        <v>33.49785239813322</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-3.891780477375377</v>
+        <v>-3.891780477364577</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>21.34185787766923</v>
+        <v>21.3418578776682</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.37581396891268</v>
+        <v>29.37581396889586</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-1.332160052357025</v>
+        <v>-1.332160052316212</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>15.67808894772624</v>
+        <v>15.67808894778535</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>22.55287531093815</v>
+        <v>22.5528753109751</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>9.227223556293225</v>
+        <v>9.227223556285495</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>24.29414520215541</v>
+        <v>24.29414520215927</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>31.11336490240139</v>
+        <v>31.11336490239354</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>27.65086679288846</v>
+        <v>27.65086679285083</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>35.43736201395156</v>
+        <v>35.43736201388766</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>40.81187516374236</v>
+        <v>40.81187516370098</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>6.418880750637882</v>
+        <v>6.418880750577401</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>27.40492110436516</v>
+        <v>27.40492110436698</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>36.58287960671591</v>
+        <v>36.58287960669851</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>4.804005760650185</v>
+        <v>4.804005760684745</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>30.04065107228838</v>
+        <v>30.04065107230942</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>38.07569275502671</v>
+        <v>38.07569275503728</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>7.366699589397072</v>
+        <v>7.366699589409237</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>24.38009925669589</v>
+        <v>24.38009925679741</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>31.25590138669658</v>
+        <v>31.25590138669794</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>17.92870072409666</v>
+        <v>17.92870072410791</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>32.99860253634132</v>
+        <v>32.99860253637327</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>39.81881704242541</v>
+        <v>39.81881704246577</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>36.35899905606597</v>
+        <v>36.35899905603323</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>44.14696994063526</v>
+        <v>44.14696994061957</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>49.52182056269716</v>
+        <v>49.52182056268772</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>15.12273300180233</v>
+        <v>15.12273300188021</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>36.11226057828777</v>
+        <v>36.1122605783187</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>45.29165203594631</v>
+        <v>45.29165203596439</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>9.180923963800083</v>
+        <v>9.18092396381077</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>34.41130208656217</v>
+        <v>34.41130208658753</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>42.44136809021326</v>
+        <v>42.44136809016346</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>11.7532020405513</v>
+        <v>11.75320204058666</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>28.76108159193724</v>
+        <v>28.76108159194622</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>35.63224332234007</v>
+        <v>35.63224332231631</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>22.30875185609922</v>
+        <v>22.30875185609501</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>37.37280241018222</v>
+        <v>37.37280241021598</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>44.18901596193656</v>
+        <v>44.18901596194145</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>40.72612389123016</v>
+        <v>40.72612389117957</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>48.50881703527195</v>
+        <v>48.50881703524284</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>53.88027577001232</v>
+        <v>53.8802757700321</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>19.4942233818398</v>
+        <v>19.49422338187448</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>40.47432969854096</v>
+        <v>40.47432969857063</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>49.64972137934764</v>
+        <v>49.64972137933627</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>12.25337754579699</v>
+        <v>12.25337754576971</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>37.48778229434085</v>
+        <v>37.48778229435108</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>45.52103677165566</v>
+        <v>45.5210367715854</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>14.81572066842081</v>
+        <v>14.81572066836738</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>31.82742297888821</v>
+        <v>31.82742297887616</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>38.70146976467437</v>
+        <v>38.70146976467869</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>25.37602757355968</v>
+        <v>25.37602757356662</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>40.44416639281418</v>
+        <v>40.44416639281202</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>47.26277985613594</v>
+        <v>47.2627798561647</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>43.80038874412595</v>
+        <v>43.80038874403353</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>51.58706211529103</v>
+        <v>51.58706211528819</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>56.96081373394169</v>
+        <v>56.96081373389497</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>22.56698973124413</v>
+        <v>22.56698973125187</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>43.55440513232419</v>
+        <v>43.55440513233965</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>52.73168008540144</v>
+        <v>52.73168008541508</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>20.94984224765473</v>
+        <v>20.94984224763267</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>46.18725381331889</v>
+        <v>46.18725381335243</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>54.22159386491002</v>
+        <v>54.22159386491604</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>23.51525862741904</v>
+        <v>23.51525862739585</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>40.53011147268536</v>
+        <v>40.530111472684</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>47.40517402981642</v>
+        <v>47.4051740298295</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>34.07818303968317</v>
+        <v>34.07818303969545</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>49.14930190324493</v>
+        <v>49.1493019032696</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>55.96891019154397</v>
+        <v>55.96891019155238</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>52.50919905495847</v>
+        <v>52.5091990548657</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>60.29734794803666</v>
+        <v>60.29734794798254</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>65.67143706694937</v>
+        <v>65.67143706695403</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>31.27152006529788</v>
+        <v>31.27152006528992</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>52.26242262646544</v>
+        <v>52.26242262646953</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>61.44113047096916</v>
+        <v>61.4411304709745</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-10.13615627335183</v>
+        <v>-10.13615627333625</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>15.09042758499699</v>
+        <v>15.09042758504735</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>23.1204953497553</v>
+        <v>23.12049534979725</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-7.56739379342558</v>
+        <v>-7.567393793415121</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>9.436853754534482</v>
+        <v>9.436853754564154</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>16.30807028789208</v>
+        <v>16.30807028789981</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>2.986160847848069</v>
+        <v>2.986160847849888</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>18.0470185051695</v>
+        <v>18.04701850516348</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>24.86319986090804</v>
+        <v>24.86319986090281</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>21.40100787194969</v>
+        <v>21.40100787194105</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.18230468687752</v>
+        <v>29.18230468681965</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>34.55383548758631</v>
+        <v>34.55383548756494</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>0.1721109305291435</v>
+        <v>0.172110930526074</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>21.14856018100456</v>
+        <v>21.14856018101229</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>30.32357890147843</v>
+        <v>30.32357890146604</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-7.062727881304895</v>
+        <v>-7.06272788130228</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>18.16788235121682</v>
+        <v>18.16788235125047</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>26.2011389995247</v>
+        <v>26.20113899953061</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-4.503899485664405</v>
+        <v>-4.503899485649967</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>12.50417058458096</v>
+        <v>12.50417058457369</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>19.3782726220111</v>
+        <v>19.37827262200666</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>6.054411999710524</v>
+        <v>6.054411999724053</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>21.119357659632</v>
+        <v>21.11935765967054</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>27.93793938195144</v>
+        <v>27.93793938200021</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>24.47624790730221</v>
+        <v>24.47624790728754</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>32.2615248040636</v>
+        <v>32.26152480405155</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>37.63534864298835</v>
+        <v>37.63534864299517</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>3.245852248904626</v>
+        <v>3.245852248886663</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>24.2296101861016</v>
+        <v>24.22961018610512</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>33.40651280607541</v>
+        <v>33.4065128060612</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>1.635381152909318</v>
+        <v>1.635381152867367</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>26.8689982604317</v>
+        <v>26.86899826041794</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>34.90334033716796</v>
+        <v>34.9033403371392</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>4.19728253529162</v>
+        <v>4.19728253525615</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>21.20850321541515</v>
+        <v>21.20850321540594</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.08362084392787</v>
+        <v>28.0836208438467</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>14.75821152302127</v>
+        <v>14.75821152305333</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.82613729296658</v>
+        <v>29.82613729297772</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.64571366235465</v>
+        <v>36.64571366234158</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>33.18670190369996</v>
+        <v>33.18670190369393</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>40.97345434105593</v>
+        <v>40.97345434106127</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>46.34761568062937</v>
+        <v>46.34761568062949</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>11.95202647608257</v>
+        <v>11.95202647606665</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>32.93927156103872</v>
+        <v>32.93927156106737</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>42.11760691554754</v>
+        <v>42.11760691555118</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>0.9292367530420194</v>
+        <v>0.929236753054866</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>26.15841600339969</v>
+        <v>26.15841600343505</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>34.18817920098208</v>
+        <v>34.18817920107121</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>3.499577571420005</v>
+        <v>3.499577571397722</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>20.50617529160469</v>
+        <v>20.50617529162697</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.37694342813644</v>
+        <v>27.37694342811552</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>14.05449729816725</v>
+        <v>14.05449729814622</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.11743550028554</v>
+        <v>29.11743550026553</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>35.93327579414178</v>
+        <v>35.93327579415985</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>32.47099381064881</v>
+        <v>32.47099381064926</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>40.25322179241722</v>
+        <v>40.25322179242677</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>45.62451977199068</v>
+        <v>45.62451977199272</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>11.23981821015379</v>
+        <v>11.23981821016731</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>32.21871724728057</v>
+        <v>32.21871724725555</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>41.39334917903786</v>
+        <v>41.39334917903376</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>4.007638602020407</v>
+        <v>4.007638602014609</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.24084455637332</v>
+        <v>29.24084455640026</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>37.27379638232084</v>
+        <v>37.27379638234187</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>6.568045128729196</v>
+        <v>6.568045128746363</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>23.57846568809568</v>
+        <v>23.57846568807749</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.45211902211601</v>
+        <v>30.45211902210248</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>17.12772220830369</v>
+        <v>17.12772220830665</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>32.19474868210763</v>
+        <v>32.19474868209478</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>39.01298907687307</v>
+        <v>39.01298907686795</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>35.55120778550362</v>
+        <v>35.5512077855433</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>43.33741599397787</v>
+        <v>43.33741599400697</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>48.71100688963624</v>
+        <v>48.71100688964317</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>14.31853342862486</v>
+        <v>14.31853342859155</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>35.30474153323804</v>
+        <v>35.30474153322145</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>44.48125702241761</v>
+        <v>44.48125702242091</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>12.70507629082739</v>
+        <v>12.70507629085445</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>37.94128912800785</v>
+        <v>37.94128912800024</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>45.97532652954534</v>
+        <v>45.97532652951158</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>15.26855579125699</v>
+        <v>15.26855579127745</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>32.28212696837694</v>
+        <v>32.28212696838263</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>39.15679604332219</v>
+        <v>39.15679604333867</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>25.83085045270822</v>
+        <v>25.83085045267968</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>40.90085705407525</v>
+        <v>40.90085705406706</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>47.72009224290436</v>
+        <v>47.72009224292482</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>44.26099073342654</v>
+        <v>44.26099073339232</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>52.04867447607809</v>
+        <v>52.04867447610935</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>57.42260292924244</v>
+        <v>57.42260292921937</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>23.02403643467234</v>
+        <v>23.02403643464994</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>44.01373178981341</v>
+        <v>44.01373178978533</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>53.19168012846252</v>
+        <v>53.19168012842887</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>-8.877058519842407</v>
+        <v>-8.877058519841839</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>16.35093110162099</v>
+        <v>16.35093110156494</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>24.38075015769211</v>
+        <v>24.38075015767164</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-6.307706057844811</v>
+        <v>-6.307706057872096</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>10.69764149669835</v>
+        <v>10.69764149672189</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>17.56846049871582</v>
+        <v>17.56846049876687</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>4.246423870346135</v>
+        <v>4.24642387028463</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>19.30821580506394</v>
+        <v>19.30821580509918</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>26.12408106579007</v>
+        <v>26.12408106580757</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>22.66217856147092</v>
+        <v>22.6621785614574</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>30.44384462622362</v>
+        <v>30.44384462621908</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>35.81518877311647</v>
+        <v>35.81518877315513</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>1.43222303149561</v>
+        <v>1.432223031486743</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>22.40983332668988</v>
+        <v>22.40983332667987</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>31.58458338856396</v>
+        <v>31.58458338855895</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-5.8056294313851</v>
+        <v>-5.805629431439101</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>19.42638671531007</v>
+        <v>19.4263867152887</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>27.45939454889312</v>
+        <v>27.4593945489237</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-3.246211572713705</v>
+        <v>-3.246211572695401</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>13.76295863351312</v>
+        <v>13.76295863351687</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>20.63666300970364</v>
+        <v>20.63666300970011</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>7.312675312719776</v>
+        <v>7.312675312723982</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>22.3785553768878</v>
+        <v>22.37855537688689</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.19682089072263</v>
+        <v>29.19682089070911</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>25.73541919295134</v>
+        <v>25.73541919296294</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>33.5210654395844</v>
+        <v>33.52106543957838</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>38.8947026006929</v>
+        <v>38.89470260069301</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>4.503965010457151</v>
+        <v>4.50396501046238</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>25.48888422133747</v>
+        <v>25.48888422129347</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>34.66551798764807</v>
+        <v>34.66551798761783</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>2.895171447908766</v>
+        <v>2.895171447939006</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.13019463286174</v>
+        <v>28.13019463284594</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>36.16428796633285</v>
+        <v>36.16428796631102</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>5.457662435125158</v>
+        <v>5.45766243508082</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>22.46998341170196</v>
+        <v>22.46998341170492</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.34470345557737</v>
+        <v>29.34470345555486</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>16.01916710516515</v>
+        <v>16.01916710521085</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>31.08802743108937</v>
+        <v>31.0880274310838</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>37.90728767136126</v>
+        <v>37.9072876713583</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>34.44856564090061</v>
+        <v>34.44856564088856</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>42.23568744089722</v>
+        <v>42.23568744088244</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>47.60966213289511</v>
+        <v>47.60966213290432</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>13.21283133982537</v>
+        <v>13.21283133981684</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>34.20123793408347</v>
+        <v>34.20123793404674</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>43.37930449386933</v>
+        <v>43.37930449388843</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-14.47597090514681</v>
+        <v>-14.4759709051276</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>10.75068538315135</v>
+        <v>10.75068538316238</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>18.78002061707174</v>
+        <v>18.78002061704343</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-11.90731578801318</v>
+        <v>-11.90731578799397</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>5.096959429442123</v>
+        <v>5.096959429444055</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>11.96732513210522</v>
+        <v>11.96732513209157</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-1.354011604752245</v>
+        <v>-1.354011604765887</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>13.70681592140296</v>
+        <v>13.70681592137716</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>20.52222757579274</v>
+        <v>20.52222757578956</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>17.06070098530553</v>
+        <v>17.06070098525062</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>24.84199056298282</v>
+        <v>24.84199056296553</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.21313049729487</v>
+        <v>30.21313049725201</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-4.167836163285855</v>
+        <v>-4.167836163291199</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>16.80852640998866</v>
+        <v>16.80852640999423</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.98267415531588</v>
+        <v>25.98267415523755</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-11.40346935816545</v>
+        <v>-11.40346935813533</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>13.82721330678977</v>
+        <v>13.82721330674578</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.85973723522194</v>
+        <v>21.85973723524593</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-8.844748388871366</v>
+        <v>-8.84474838888444</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>8.163349336810953</v>
+        <v>8.163349336809475</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>15.03660033786754</v>
+        <v>15.03660033787891</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>1.71331264937011</v>
+        <v>1.713312649378864</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>16.77822813145384</v>
+        <v>16.77822813139768</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>23.59603999590571</v>
+        <v>23.59603999588343</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>20.13501413187863</v>
+        <v>20.13501413183646</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>27.92028377550879</v>
+        <v>27.92028377550891</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>33.29371663822714</v>
+        <v>33.29371663824817</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-1.095021656286448</v>
+        <v>-1.09502165628929</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>19.88864953402334</v>
+        <v>19.88864953402118</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.06468097161566</v>
+        <v>29.06468097162237</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-2.702681085168464</v>
+        <v>-2.702681085144476</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22.53100850048953</v>
+        <v>22.53100850042564</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>30.56461790108905</v>
+        <v>30.56461790104164</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-0.1408871767314253</v>
+        <v>-0.1408871767481372</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>16.87036119743017</v>
+        <v>16.87036119740721</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>23.74462783525804</v>
+        <v>23.74462783523497</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>10.41979158479855</v>
+        <v>10.41979158485664</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>25.48768721437172</v>
+        <v>25.48768721437899</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>32.30649377204351</v>
+        <v>32.30649377201827</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.84814740840422</v>
+        <v>28.8481474083343</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>36.63489256797051</v>
+        <v>36.63489256795823</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>42.00866294875938</v>
+        <v>42.00866294871868</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>7.613831698088362</v>
+        <v>7.613831698089044</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.60099014163997</v>
+        <v>28.6009901416577</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>37.77845431262053</v>
+        <v>37.77845431261279</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-2.19280983753093</v>
+        <v>-2.192809837553327</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>23.03665104954111</v>
+        <v>23.03665104950746</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>31.06753832968856</v>
+        <v>31.06753832964183</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>0.3762488118234302</v>
+        <v>0.3762488118117204</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>17.38245875067959</v>
+        <v>17.38245875072995</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>24.25447967257323</v>
+        <v>24.25447967260665</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>10.93124062336518</v>
+        <v>10.93124062334699</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.99390171401571</v>
+        <v>25.99390171400161</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>32.81082212826153</v>
+        <v>32.81082212824903</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.34753788455068</v>
+        <v>29.34753788450475</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>37.12985603107815</v>
+        <v>37.12985603104131</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>42.50208658110513</v>
+        <v>42.50208658112059</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>8.11721392064284</v>
+        <v>8.117213920702298</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.09577165597513</v>
+        <v>29.09577165600594</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>38.27202286614262</v>
+        <v>38.27202286614342</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>0.8807673774638403</v>
+        <v>0.8807673774664551</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>26.11425497787799</v>
+        <v>26.11425497787515</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>34.14833118050787</v>
+        <v>34.14833118047558</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>3.43989060639673</v>
+        <v>3.439890606386385</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>20.44992336414488</v>
+        <v>20.44992336415488</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>27.32482980056444</v>
+        <v>27.32482980054682</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>13.99963964316704</v>
+        <v>13.99963964320024</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.0663890803129</v>
+        <v>29.06638908032859</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>35.88570982191597</v>
+        <v>35.88570982194814</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>32.42292637501318</v>
+        <v>32.42292637499283</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>40.20922500536314</v>
+        <v>40.20922500533108</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>45.58374870994272</v>
+        <v>45.58374870992226</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>11.19110363279459</v>
+        <v>11.19110363274503</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>32.17697066679956</v>
+        <v>32.17697066677046</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>41.35510560733714</v>
+        <v>41.35510560732702</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>9.577565785122502</v>
+        <v>9.577565785164339</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>34.81406043443407</v>
+        <v>34.81406043443509</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>42.8492221694171</v>
+        <v>42.84922216942404</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>12.13976250813245</v>
+        <v>12.13976250814279</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.15294602816188</v>
+        <v>29.15294602821247</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>36.02886816894069</v>
+        <v>36.02886816895843</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>22.70212912758713</v>
+        <v>22.70212912760384</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>37.77185881248705</v>
+        <v>37.77185881252264</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>44.59217430563321</v>
+        <v>44.59217430563719</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>41.13207101525872</v>
+        <v>41.13207101522234</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>48.91984531493746</v>
+        <v>48.91984531494451</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>54.29470646872154</v>
+        <v>54.29470646870119</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>19.89596817221401</v>
+        <v>19.89596817229462</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>40.88532248988874</v>
+        <v>40.88532248991238</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>50.06489034608013</v>
+        <v>50.06489034610821</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>1.777025337742216</v>
+        <v>1.777025337719934</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>27.00584870432432</v>
+        <v>27.00584870428703</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>35.03592306215684</v>
+        <v>35.03592306211796</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>4.347316009098918</v>
+        <v>4.347316009106649</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>21.35359532618635</v>
+        <v>21.35359532620943</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.22468625305864</v>
+        <v>28.22468625309024</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>14.90205208193801</v>
+        <v>14.90205208194415</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.96472967044328</v>
+        <v>29.96472967045226</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>36.78085284078965</v>
+        <v>36.78085284079442</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>33.31840988766056</v>
+        <v>33.31840988763646</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>41.10045843406716</v>
+        <v>41.10045843407524</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>46.47195489332013</v>
+        <v>46.47195489329285</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>12.08741507260903</v>
+        <v>12.08741507259971</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>33.06614317504706</v>
+        <v>33.06614317503637</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>42.24114277481193</v>
+        <v>42.24114277481785</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>4.847524463911455</v>
+        <v>4.847524463933169</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>30.08037430727133</v>
+        <v>30.08037430725007</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>38.11363744535369</v>
+        <v>38.11363744535869</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>7.40788049127606</v>
+        <v>7.407880491274582</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>24.4179824194929</v>
+        <v>24.41798241952041</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>31.29195871037361</v>
+        <v>31.29195871037736</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>17.96737352510264</v>
+        <v>17.96737352510799</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>33.03413919355377</v>
+        <v>33.03413919358799</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>39.85266261591359</v>
+        <v>39.85266261595451</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>36.39072054448231</v>
+        <v>36.39072054447958</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>44.17674924005418</v>
+        <v>44.17674924002348</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>49.55053873025419</v>
+        <v>49.5505387302742</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>15.15822710978559</v>
+        <v>15.15822710981674</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>36.14426410265015</v>
+        <v>36.14426410268915</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>45.32114741893612</v>
+        <v>45.32114741895226</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>13.54559421066371</v>
+        <v>13.54559421065711</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>38.78145100369228</v>
+        <v>38.78145100369694</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>46.81579968370194</v>
+        <v>46.81579968368557</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>16.10902334560434</v>
+        <v>16.10902334560934</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>33.12227596828758</v>
+        <v>33.12227596829497</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>39.99726796120673</v>
+        <v>39.99726796123254</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>26.6711339709001</v>
+        <v>26.67113397095001</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>41.74087984038489</v>
+        <v>41.74087984044492</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>48.56039801575493</v>
+        <v>48.56039801577528</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>45.10113570706382</v>
+        <v>45.10113570703972</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>52.88864000121272</v>
+        <v>52.88864000120795</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>58.26276702789757</v>
+        <v>58.26276702786892</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>23.86436233362225</v>
+        <v>23.86436233361975</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>44.85388662729976</v>
+        <v>44.85388662728782</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>54.0322027711335</v>
+        <v>54.03220277115703</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>5.354643124415148</v>
+        <v>5.354643124408327</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>30.58579114604903</v>
+        <v>30.58579114606552</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>38.61686895762035</v>
+        <v>38.61686895763911</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>7.925292812561352</v>
+        <v>7.925292812550552</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>24.93310178714093</v>
+        <v>24.93310178714957</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>31.80530969100109</v>
+        <v>31.80530969100279</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>18.48101484771099</v>
+        <v>18.48101484768053</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>33.54510003351608</v>
+        <v>33.54510003351926</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>40.36221377001586</v>
+        <v>40.362213770032</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>36.89851079829442</v>
+        <v>36.89851079824645</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>44.68144583584434</v>
+        <v>44.68144583582524</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>50.05381481427459</v>
+        <v>50.05381481430074</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>15.6665458261556</v>
+        <v>15.66654582617504</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>36.64683489381117</v>
+        <v>36.64683489379298</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>45.82337885353776</v>
+        <v>45.82337885354583</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>8.429596714306754</v>
+        <v>8.429596714301979</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>33.66477160218314</v>
+        <v>33.66477160214835</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>41.69903828469616</v>
+        <v>41.69903828467581</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>10.99031078042619</v>
+        <v>10.99031078040311</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.0019427258966</v>
+        <v>28.00194272587738</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>34.87703607090465</v>
+        <v>34.87703607090693</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>21.55079024760586</v>
+        <v>21.55079024761939</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>36.61896393696169</v>
+        <v>36.61896393697556</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>43.43847792284124</v>
+        <v>43.43847792287399</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>39.97527583350065</v>
+        <v>39.97527583348769</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>47.76219146531231</v>
+        <v>47.76219146530276</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>53.13685359542775</v>
+        <v>53.13685359540717</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>18.7418120809249</v>
+        <v>18.74181208092206</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>39.72941069771288</v>
+        <v>39.72941069770856</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>48.90783824667837</v>
+        <v>48.90783824668564</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>17.12488761899841</v>
+        <v>17.12488761898443</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>42.36306951792473</v>
+        <v>42.36306951794212</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>50.39842178821176</v>
+        <v>50.3984217882403</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>19.68867523886401</v>
+        <v>19.68867523888674</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>36.70345790897433</v>
+        <v>36.70345790895171</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>43.57956702430057</v>
+        <v>43.5795670243099</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>30.25177224229357</v>
+        <v>30.25177224236212</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>45.3229261504414</v>
+        <v>45.32292615043777</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>52.14343494867195</v>
+        <v>52.14343494870003</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>48.68291316462798</v>
+        <v>48.68291316465333</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>56.47130447774602</v>
+        <v>56.47130447773374</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>61.84630405487464</v>
+        <v>61.84630405486475</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>27.44516931151942</v>
+        <v>27.44516931149816</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>48.43625520624222</v>
+        <v>48.43625520619914</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>57.61611573419124</v>
+        <v>57.61611573413133</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>3.357807436618955</v>
+        <v>3.357807436590761</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.58724143179428</v>
+        <v>28.58724143173983</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>36.61807875570891</v>
+        <v>36.61807875569708</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>5.927842264700089</v>
+        <v>5.927842264711686</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>22.934124149033</v>
+        <v>22.93412414901833</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.80615128321223</v>
+        <v>29.80615128321462</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>16.4826027587426</v>
+        <v>16.48260275867553</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>31.54534412184809</v>
+        <v>31.54534412184798</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>38.36224478833743</v>
+        <v>38.36224478833482</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>34.89839977030978</v>
+        <v>34.89839977029159</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>42.68076540620304</v>
+        <v>42.68076540621691</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>48.05307388960297</v>
+        <v>48.05307388958478</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>13.66811711822631</v>
+        <v>13.66811711821073</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>34.64665911760962</v>
+        <v>34.6466591175638</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>43.82295710054451</v>
+        <v>43.82295710053496</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>6.433736302978915</v>
+        <v>6.433736302999947</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>31.66719697126349</v>
+        <v>31.66719697121904</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>39.70122312332127</v>
+        <v>39.70122312332877</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>8.993836021220218</v>
+        <v>8.99383602118634</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>26.00394068704112</v>
+        <v>26.00394068703419</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>32.87885323985417</v>
+        <v>32.87885323982404</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>19.55335371465561</v>
+        <v>19.5533537146522</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>34.62018337501969</v>
+        <v>34.6201833750106</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>41.43948428739738</v>
+        <v>41.43948428742262</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>37.9761400215199</v>
+        <v>37.97614002150637</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>45.7624860913585</v>
+        <v>45.7624860913519</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>51.13708768096048</v>
+        <v>51.13708768093922</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>16.74435860007226</v>
+        <v>16.74435860007419</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>37.73020980190701</v>
+        <v>37.73020980193225</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>46.90839139806612</v>
+        <v>46.90839139803929</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>15.12851721360973</v>
+        <v>15.12851721364144</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>40.3649847980853</v>
+        <v>40.36498479806711</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>48.40009646733883</v>
+        <v>48.40009646733121</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>17.6916903442882</v>
+        <v>17.69169034426672</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>34.70494562844296</v>
+        <v>34.70494562841249</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>41.58087387115724</v>
+        <v>41.58087387112916</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>28.25382546109337</v>
+        <v>28.25382546103607</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>43.3236352406342</v>
+        <v>43.32363524065319</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>50.14393088402313</v>
+        <v>50.14393088404485</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>46.68326683144541</v>
+        <v>46.68326683144711</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>54.47108854649504</v>
+        <v>54.47108854646923</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>59.84602756782023</v>
+        <v>59.84602756788571</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>25.44720547853639</v>
+        <v>25.44720547851536</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>46.43654382057368</v>
+        <v>46.43654382052252</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>55.6161583280723</v>
+        <v>55.61615832806253</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>0.5411706212538689</v>
+        <v>0.5411706212323821</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>25.77155278598094</v>
+        <v>25.77155278599402</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>33.80224295160635</v>
+        <v>33.80224295162931</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>3.111251825199261</v>
+        <v>3.111251825128207</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>20.11852526481847</v>
+        <v>20.11852526481665</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>26.99025659374992</v>
+        <v>26.99025659375754</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>13.66675326761562</v>
+        <v>13.66675326765098</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.73035672859193</v>
+        <v>28.73035672860216</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>35.54709698939884</v>
+        <v>35.54709698943556</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>32.08418502870724</v>
+        <v>32.08418502870701</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>39.86681269889131</v>
+        <v>39.86681269887676</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>45.2387313034309</v>
+        <v>45.23873130342453</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>10.85199185127023</v>
+        <v>10.85199185127398</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>31.83193306244449</v>
+        <v>31.83193306248008</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>41.00777937084798</v>
+        <v>41.00777937085003</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>3.614108896354665</v>
+        <v>3.614108896446865</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>28.84851781367151</v>
+        <v>28.84851781368197</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>36.88239687006207</v>
+        <v>36.88239687008674</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>6.174254871496728</v>
+        <v>6.174254871485587</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>23.18535119489231</v>
+        <v>23.18535119490163</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>30.05996798108539</v>
+        <v>30.05996798111563</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>16.73451359795946</v>
+        <v>16.73451359801744</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>31.80220543071677</v>
+        <v>31.80220543079373</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>38.62134599657249</v>
+        <v>38.62134599656919</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>35.15893489936481</v>
+        <v>35.15893489936458</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>42.94554299352571</v>
+        <v>42.94554299356572</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>48.31975469688179</v>
+        <v>48.31975469690589</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>13.92524303630013</v>
+        <v>13.92524303636573</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>34.91249357501194</v>
+        <v>34.91249357511164</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>44.09022363645546</v>
+        <v>44.09022363643818</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>12.31071043890167</v>
+        <v>12.31071043891338</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>37.5481264079116</v>
+        <v>37.54812640788863</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>45.58309108063453</v>
+        <v>45.58309108061702</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>14.87392976107573</v>
+        <v>14.87392976104481</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>31.88817687835764</v>
+        <v>31.88817687836537</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>38.76380944761662</v>
+        <v>38.76380944761594</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>25.43680607607872</v>
+        <v>25.43680607608361</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>40.50747820166784</v>
+        <v>40.50747820163976</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>47.32761359764824</v>
+        <v>47.32761359767973</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>43.86788254063835</v>
+        <v>43.8678825406629</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>51.65596631403913</v>
+        <v>51.65596631408984</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>57.03051556670506</v>
+        <v>57.03051556680636</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>22.62991059423588</v>
+        <v>22.62991059427715</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>43.62064853194398</v>
+        <v>43.62064853201174</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>52.79981152730262</v>
+        <v>52.79981152728432</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>-5.639931650782486</v>
+        <v>-5.639931650808634</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>19.58782059942327</v>
+        <v>19.58782059942372</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>27.61817828753637</v>
+        <v>27.61817828753807</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>-3.071138469625552</v>
+        <v>-3.071138469568822</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>13.93389568322335</v>
+        <v>13.93389568330203</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>20.80542271351182</v>
+        <v>20.80542271355615</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>7.482923215936253</v>
+        <v>7.482923215920906</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>22.54451997845321</v>
+        <v>22.54451997844616</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.36096542277518</v>
+        <v>29.36096542282782</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>25.89811457391023</v>
+        <v>25.89811457389216</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>33.67987583719118</v>
+        <v>33.67987583713774</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>39.0517398689782</v>
+        <v>39.05173986906313</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>4.668879354623769</v>
+        <v>4.668879354706533</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>25.64601702690108</v>
+        <v>25.64601702688948</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>34.82165640371649</v>
+        <v>34.82165640372058</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-2.563487265890089</v>
+        <v>-2.563487265817443</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>22.66829161406964</v>
+        <v>22.6682916141407</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>30.70183814399412</v>
+        <v>30.70183814402937</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-0.004628582221116062</v>
+        <v>-0.004628582198492381</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>17.00422833093639</v>
+        <v>17.00422833098106</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>23.87864082246371</v>
+        <v>23.87864082251907</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>10.55419016370708</v>
+        <v>10.5541901636873</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.61987518553373</v>
+        <v>25.61987518556749</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>32.43872092242499</v>
+        <v>32.43872092247263</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.97637061500224</v>
+        <v>28.97637061500724</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>36.76211220542895</v>
+        <v>36.76211220541371</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>42.13626935291326</v>
+        <v>42.13626935294214</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>7.745636514018102</v>
+        <v>7.745636513987066</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.73008321578369</v>
+        <v>28.73008321579586</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>37.90760640096984</v>
+        <v>37.90760640095574</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>6.13222453092591</v>
+        <v>6.132224530996169</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>31.36701024749028</v>
+        <v>31.36701024750961</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>39.40164224076911</v>
+        <v>39.40164224078366</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>8.694156355805049</v>
+        <v>8.694156355837563</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>25.70616381150525</v>
+        <v>25.70616381154584</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>32.58159195037332</v>
+        <v>32.58159195043812</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>19.25559250916025</v>
+        <v>19.25559250912774</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>34.32425757343812</v>
+        <v>34.32425757347598</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>41.14409799983345</v>
+        <v>41.14409799986346</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>37.68442768131696</v>
+        <v>37.68442768130787</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>45.47164484239035</v>
+        <v>45.47164484236932</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>50.84613939083364</v>
+        <v>50.84613939078362</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>16.44941377277543</v>
+        <v>16.44941377277759</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>37.43734753899061</v>
+        <v>37.43734753896526</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>46.61630353769353</v>
+        <v>46.61630353770228</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>1.653593933095195</v>
+        <v>1.653593933097923</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>26.88278060457459</v>
+        <v>26.88278060456311</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>34.91363649343295</v>
+        <v>34.91363649343533</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>4.223381767447464</v>
+        <v>4.22338176743007</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>21.22943226974463</v>
+        <v>21.2294322697684</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.10148568376918</v>
+        <v>28.10148568381932</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>14.7780133842423</v>
+        <v>14.77801338416283</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.840549041214</v>
+        <v>29.84054904120059</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>36.65746671132537</v>
+        <v>36.65746671130138</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>33.19368752944969</v>
+        <v>33.19368752942934</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>40.97596694510516</v>
+        <v>40.97596694508594</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>46.34829796279281</v>
+        <v>46.34829796275848</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>11.96366074501977</v>
+        <v>11.96366074501442</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>32.94196768590668</v>
+        <v>32.94196768590167</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>42.11827705599309</v>
+        <v>42.11827705602924</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>4.728973633273895</v>
+        <v>4.728973633276397</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.96218695738459</v>
+        <v>29.96218695737004</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>37.99623170569033</v>
+        <v>37.99623170567249</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>7.288826377198703</v>
+        <v>7.288826377159594</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>24.2986996425558</v>
+        <v>24.2986996426264</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>31.17363851131246</v>
+        <v>31.17363851131212</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>17.84821514528097</v>
+        <v>17.84821514527688</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>32.91483908434567</v>
+        <v>32.91483908433169</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>39.73415703137495</v>
+        <v>39.73415703138018</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>36.27087858088795</v>
+        <v>36.27087858090614</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>44.05713842343461</v>
+        <v>44.05713842345814</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>49.43176256806602</v>
+        <v>49.43176256809831</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>15.03935301983553</v>
+        <v>15.03935301986623</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>36.02496913801191</v>
+        <v>36.02496913801839</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>45.20316216253356</v>
+        <v>45.20316216254925</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>13.42392065516437</v>
+        <v>13.42392065516346</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>38.66014089744512</v>
+        <v>38.66014089740703</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>46.69527115099812</v>
+        <v>46.6952711509506</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>15.9868468131606</v>
+        <v>15.98684681314082</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>32.99987069753401</v>
+        <v>32.99987069757459</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>39.8758252455366</v>
+        <v>39.87582524551682</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>26.54885300823516</v>
+        <v>26.54885300823049</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>41.61845706570297</v>
+        <v>41.6184570657456</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>48.43876973312867</v>
+        <v>48.43876973312184</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>44.9781714901459</v>
+        <v>44.97817149010849</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>52.76590697308008</v>
+        <v>52.76590697302619</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>58.14086854318408</v>
+        <v>58.14086854316487</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>23.74236600212045</v>
+        <v>23.74236600209703</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>44.73146925088021</v>
+        <v>44.73146925088226</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>53.91109517969529</v>
+        <v>53.91109517972292</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>5.19840590029095</v>
+        <v>5.198405900301523</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>30.42763923939948</v>
+        <v>30.42763923940232</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>38.45790466732412</v>
+        <v>38.45790466736743</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>7.769123890242682</v>
+        <v>7.769123890253596</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>24.77562346251854</v>
+        <v>24.7756234625141</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>31.64701952195857</v>
+        <v>31.64701952197892</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>18.32414245699205</v>
+        <v>18.32414245701422</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>33.38699035239485</v>
+        <v>33.38699035240622</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>40.20334929817274</v>
+        <v>40.20334929817263</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>36.74022972322918</v>
+        <v>36.74022972319882</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>44.52247705680089</v>
+        <v>44.52247705676872</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>49.89415531940223</v>
+        <v>49.89415531939086</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>15.50963543647119</v>
+        <v>15.50963543655975</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>36.48830109107361</v>
+        <v>36.48830109109635</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>45.66401149318519</v>
+        <v>45.66401149318268</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>8.27293440296468</v>
+        <v>8.272934402925571</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>33.50619434036209</v>
+        <v>33.50619434032093</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>41.53964840287007</v>
+        <v>41.53964840282073</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>10.83371735843754</v>
+        <v>10.83371735845982</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>27.84403965241496</v>
+        <v>27.84403965237176</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>34.71832095423316</v>
+        <v>34.71832095428364</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>21.39349309511273</v>
+        <v>21.39349309505873</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>36.46042921793789</v>
+        <v>36.46042921792845</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>43.27918825390942</v>
+        <v>43.27918825389055</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>39.81656945190925</v>
+        <v>39.81656945191857</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>47.60279703834421</v>
+        <v>47.6027970383599</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>52.97676824597887</v>
+        <v>52.97676824601707</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>18.58447649844403</v>
+        <v>18.58447649843471</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>39.57045123256252</v>
+        <v>39.57045123258503</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>48.74804504357873</v>
+        <v>48.74804504354144</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>16.96858435696926</v>
+        <v>16.96858435696983</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>42.20485117965758</v>
+        <v>42.20485117962109</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>50.23939074344231</v>
+        <v>50.23939074339138</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>19.53244052161087</v>
+        <v>19.53244052158904</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>36.5459134148589</v>
+        <v>36.54591341486481</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>43.4212103967683</v>
+        <v>43.42121039682776</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>30.09483370377974</v>
+        <v>30.09483370377133</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>45.16474993198007</v>
+        <v>45.16474993197939</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>51.98450369277442</v>
+        <v>51.98450369278659</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>48.52456491436898</v>
+        <v>48.52456491435647</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>56.31226808762166</v>
+        <v>56.31226808758733</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>61.6865767800066</v>
+        <v>61.68657678001445</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>27.28819202088359</v>
+        <v>27.28819202091906</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>48.27765392482662</v>
+        <v>48.27765392484208</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>57.45668059993808</v>
+        <v>57.45668059995491</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>1.396745275760864</v>
+        <v>1.396745275802473</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>26.62707047496839</v>
+        <v>26.62707047496282</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>34.65775249610773</v>
+        <v>34.65775249610125</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>3.966888264587865</v>
+        <v>3.966888264571494</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>20.97414302020276</v>
+        <v>20.97414302025756</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>27.84588506666786</v>
+        <v>27.84588506668594</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>14.52238302865818</v>
+        <v>14.52238302866421</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>29.58598152479091</v>
+        <v>29.58598152480558</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>36.40272159108851</v>
+        <v>36.40272159110829</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>32.9397427510204</v>
+        <v>32.93974275099824</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>40.72236151791095</v>
+        <v>40.7223615178922</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>46.09431308045704</v>
+        <v>46.09431308043612</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>11.70763388447462</v>
+        <v>11.70763388452589</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>32.68755504667412</v>
+        <v>32.68755504669879</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>41.86339921445644</v>
+        <v>41.86339921444541</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>4.469985867501592</v>
+        <v>4.469985867516144</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>29.70433779880047</v>
+        <v>29.70433779881263</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>37.73820869444377</v>
+        <v>37.73820869445127</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>7.030193665486891</v>
+        <v>7.030193665438802</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>24.04127128201232</v>
+        <v>24.04127128202437</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>30.91589877607079</v>
+        <v>30.91589877604362</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>17.59044570946868</v>
+        <v>17.59044570945208</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>32.65813255917205</v>
+        <v>32.65813255919194</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>39.477272918081</v>
+        <v>39.47727291811306</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>36.01479492376178</v>
+        <v>36.0147949237769</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>43.80139409778509</v>
+        <v>43.80139409780772</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>49.17563875371833</v>
+        <v>49.17563875371526</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>14.78118738821878</v>
+        <v>14.78118738826926</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>35.76841785258763</v>
+        <v>35.76841785260287</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>44.94614574621052</v>
+        <v>44.94614574619472</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>13.16586797945912</v>
+        <v>13.16586797942274</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>38.40322691778717</v>
+        <v>38.40322691775454</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>46.43818342842691</v>
+        <v>46.43818342843294</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>15.72914910201918</v>
+        <v>15.72914910195983</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>32.74337746311052</v>
+        <v>32.74337746309506</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>39.61902074298293</v>
+        <v>39.61902074294677</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>26.29201867411247</v>
+        <v>26.29201867407939</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>41.36268577118337</v>
+        <v>41.36268577116518</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>48.18282096041277</v>
+        <v>48.18282096041141</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>44.72302302219249</v>
+        <v>44.72302302217055</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>52.51109785884252</v>
+        <v>52.51109785884604</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>57.88568005781691</v>
+        <v>57.88568005779929</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>23.48513545039613</v>
+        <v>23.48513545043285</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>44.47585324558442</v>
+        <v>44.4758532455843</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>53.65501409065008</v>
+        <v>53.65501409063735</v>
       </c>
     </row>
   </sheetData>
